--- a/Project Gantt Chart.xlsx
+++ b/Project Gantt Chart.xlsx
@@ -2326,19 +2326,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2360,14 +2347,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="12" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2378,12 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -2465,11 +2438,38 @@
     <xf numFmtId="0" fontId="53" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3221,7 +3221,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3239,1756 +3239,1756 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:253" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:253" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
-      <c r="B3" s="137" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103">
+      <c r="E3" s="134"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97">
         <f>D4-WEEKDAY(D4,1)+2+7*(D5-1)</f>
         <v>42142</v>
       </c>
-      <c r="J3" s="103">
+      <c r="J3" s="97">
         <f>I3+1</f>
         <v>42143</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="97">
         <f t="shared" ref="K3:BL3" si="0">J3+1</f>
         <v>42144</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="97">
         <f t="shared" si="0"/>
         <v>42145</v>
       </c>
-      <c r="M3" s="103">
+      <c r="M3" s="97">
         <f t="shared" si="0"/>
         <v>42146</v>
       </c>
-      <c r="N3" s="103">
+      <c r="N3" s="97">
         <f t="shared" si="0"/>
         <v>42147</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="97">
         <f t="shared" si="0"/>
         <v>42148</v>
       </c>
-      <c r="P3" s="103">
+      <c r="P3" s="97">
         <f t="shared" si="0"/>
         <v>42149</v>
       </c>
-      <c r="Q3" s="103">
+      <c r="Q3" s="97">
         <f t="shared" si="0"/>
         <v>42150</v>
       </c>
-      <c r="R3" s="103">
+      <c r="R3" s="97">
         <f t="shared" si="0"/>
         <v>42151</v>
       </c>
-      <c r="S3" s="103">
+      <c r="S3" s="97">
         <f t="shared" si="0"/>
         <v>42152</v>
       </c>
-      <c r="T3" s="103">
+      <c r="T3" s="97">
         <f t="shared" si="0"/>
         <v>42153</v>
       </c>
-      <c r="U3" s="103">
+      <c r="U3" s="97">
         <f t="shared" si="0"/>
         <v>42154</v>
       </c>
-      <c r="V3" s="103">
+      <c r="V3" s="97">
         <f t="shared" si="0"/>
         <v>42155</v>
       </c>
-      <c r="W3" s="103">
+      <c r="W3" s="97">
         <f t="shared" si="0"/>
         <v>42156</v>
       </c>
-      <c r="X3" s="103">
+      <c r="X3" s="97">
         <f t="shared" si="0"/>
         <v>42157</v>
       </c>
-      <c r="Y3" s="103">
+      <c r="Y3" s="97">
         <f t="shared" si="0"/>
         <v>42158</v>
       </c>
-      <c r="Z3" s="103">
+      <c r="Z3" s="97">
         <f t="shared" si="0"/>
         <v>42159</v>
       </c>
-      <c r="AA3" s="103">
+      <c r="AA3" s="97">
         <f t="shared" si="0"/>
         <v>42160</v>
       </c>
-      <c r="AB3" s="103">
+      <c r="AB3" s="97">
         <f t="shared" si="0"/>
         <v>42161</v>
       </c>
-      <c r="AC3" s="103">
+      <c r="AC3" s="97">
         <f t="shared" si="0"/>
         <v>42162</v>
       </c>
-      <c r="AD3" s="103">
+      <c r="AD3" s="97">
         <f t="shared" si="0"/>
         <v>42163</v>
       </c>
-      <c r="AE3" s="103">
+      <c r="AE3" s="97">
         <f t="shared" si="0"/>
         <v>42164</v>
       </c>
-      <c r="AF3" s="103">
+      <c r="AF3" s="97">
         <f t="shared" si="0"/>
         <v>42165</v>
       </c>
-      <c r="AG3" s="103">
+      <c r="AG3" s="97">
         <f t="shared" si="0"/>
         <v>42166</v>
       </c>
-      <c r="AH3" s="103">
+      <c r="AH3" s="97">
         <f t="shared" si="0"/>
         <v>42167</v>
       </c>
-      <c r="AI3" s="103">
+      <c r="AI3" s="97">
         <f t="shared" si="0"/>
         <v>42168</v>
       </c>
-      <c r="AJ3" s="103">
+      <c r="AJ3" s="97">
         <f t="shared" si="0"/>
         <v>42169</v>
       </c>
-      <c r="AK3" s="103">
+      <c r="AK3" s="97">
         <f t="shared" si="0"/>
         <v>42170</v>
       </c>
-      <c r="AL3" s="103">
+      <c r="AL3" s="97">
         <f t="shared" si="0"/>
         <v>42171</v>
       </c>
-      <c r="AM3" s="103">
+      <c r="AM3" s="97">
         <f t="shared" si="0"/>
         <v>42172</v>
       </c>
-      <c r="AN3" s="103">
+      <c r="AN3" s="97">
         <f t="shared" si="0"/>
         <v>42173</v>
       </c>
-      <c r="AO3" s="103">
+      <c r="AO3" s="97">
         <f t="shared" si="0"/>
         <v>42174</v>
       </c>
-      <c r="AP3" s="103">
+      <c r="AP3" s="97">
         <f t="shared" si="0"/>
         <v>42175</v>
       </c>
-      <c r="AQ3" s="103">
+      <c r="AQ3" s="97">
         <f t="shared" si="0"/>
         <v>42176</v>
       </c>
-      <c r="AR3" s="103">
+      <c r="AR3" s="97">
         <f t="shared" si="0"/>
         <v>42177</v>
       </c>
-      <c r="AS3" s="103">
+      <c r="AS3" s="97">
         <f t="shared" si="0"/>
         <v>42178</v>
       </c>
-      <c r="AT3" s="103">
+      <c r="AT3" s="97">
         <f t="shared" si="0"/>
         <v>42179</v>
       </c>
-      <c r="AU3" s="103">
+      <c r="AU3" s="97">
         <f t="shared" si="0"/>
         <v>42180</v>
       </c>
-      <c r="AV3" s="103">
+      <c r="AV3" s="97">
         <f t="shared" si="0"/>
         <v>42181</v>
       </c>
-      <c r="AW3" s="103">
+      <c r="AW3" s="97">
         <f t="shared" si="0"/>
         <v>42182</v>
       </c>
-      <c r="AX3" s="103">
+      <c r="AX3" s="97">
         <f t="shared" si="0"/>
         <v>42183</v>
       </c>
-      <c r="AY3" s="103">
+      <c r="AY3" s="97">
         <f t="shared" si="0"/>
         <v>42184</v>
       </c>
-      <c r="AZ3" s="103">
+      <c r="AZ3" s="97">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="BA3" s="103">
+      <c r="BA3" s="97">
         <f t="shared" si="0"/>
         <v>42186</v>
       </c>
-      <c r="BB3" s="103">
+      <c r="BB3" s="97">
         <f t="shared" si="0"/>
         <v>42187</v>
       </c>
-      <c r="BC3" s="103">
+      <c r="BC3" s="97">
         <f t="shared" si="0"/>
         <v>42188</v>
       </c>
-      <c r="BD3" s="103">
+      <c r="BD3" s="97">
         <f t="shared" si="0"/>
         <v>42189</v>
       </c>
-      <c r="BE3" s="103">
+      <c r="BE3" s="97">
         <f t="shared" si="0"/>
         <v>42190</v>
       </c>
-      <c r="BF3" s="103">
+      <c r="BF3" s="97">
         <f t="shared" si="0"/>
         <v>42191</v>
       </c>
-      <c r="BG3" s="103">
+      <c r="BG3" s="97">
         <f t="shared" si="0"/>
         <v>42192</v>
       </c>
-      <c r="BH3" s="103">
+      <c r="BH3" s="97">
         <f t="shared" si="0"/>
         <v>42193</v>
       </c>
-      <c r="BI3" s="103">
+      <c r="BI3" s="97">
         <f t="shared" si="0"/>
         <v>42194</v>
       </c>
-      <c r="BJ3" s="103">
+      <c r="BJ3" s="97">
         <f t="shared" si="0"/>
         <v>42195</v>
       </c>
-      <c r="BK3" s="103">
+      <c r="BK3" s="97">
         <f t="shared" si="0"/>
         <v>42196</v>
       </c>
-      <c r="BL3" s="103">
+      <c r="BL3" s="97">
         <f t="shared" si="0"/>
         <v>42197</v>
       </c>
-      <c r="BM3" s="103">
+      <c r="BM3" s="97">
         <f t="shared" ref="BM3" si="1">BL3+1</f>
         <v>42198</v>
       </c>
-      <c r="BN3" s="103">
+      <c r="BN3" s="97">
         <f t="shared" ref="BN3" si="2">BM3+1</f>
         <v>42199</v>
       </c>
-      <c r="BO3" s="103">
+      <c r="BO3" s="97">
         <f t="shared" ref="BO3" si="3">BN3+1</f>
         <v>42200</v>
       </c>
-      <c r="BP3" s="103">
+      <c r="BP3" s="97">
         <f t="shared" ref="BP3" si="4">BO3+1</f>
         <v>42201</v>
       </c>
-      <c r="BQ3" s="103">
+      <c r="BQ3" s="97">
         <f t="shared" ref="BQ3" si="5">BP3+1</f>
         <v>42202</v>
       </c>
-      <c r="BR3" s="103">
+      <c r="BR3" s="97">
         <f t="shared" ref="BR3" si="6">BQ3+1</f>
         <v>42203</v>
       </c>
-      <c r="BS3" s="103">
+      <c r="BS3" s="97">
         <f t="shared" ref="BS3" si="7">BR3+1</f>
         <v>42204</v>
       </c>
-      <c r="BT3" s="103">
+      <c r="BT3" s="97">
         <f t="shared" ref="BT3" si="8">BS3+1</f>
         <v>42205</v>
       </c>
-      <c r="BU3" s="103">
+      <c r="BU3" s="97">
         <f t="shared" ref="BU3" si="9">BT3+1</f>
         <v>42206</v>
       </c>
-      <c r="BV3" s="103">
+      <c r="BV3" s="97">
         <f t="shared" ref="BV3" si="10">BU3+1</f>
         <v>42207</v>
       </c>
-      <c r="BW3" s="103">
+      <c r="BW3" s="97">
         <f t="shared" ref="BW3" si="11">BV3+1</f>
         <v>42208</v>
       </c>
-      <c r="BX3" s="103">
+      <c r="BX3" s="97">
         <f t="shared" ref="BX3" si="12">BW3+1</f>
         <v>42209</v>
       </c>
-      <c r="BY3" s="103">
+      <c r="BY3" s="97">
         <f t="shared" ref="BY3" si="13">BX3+1</f>
         <v>42210</v>
       </c>
-      <c r="BZ3" s="103">
+      <c r="BZ3" s="97">
         <f t="shared" ref="BZ3" si="14">BY3+1</f>
         <v>42211</v>
       </c>
-      <c r="CA3" s="103">
+      <c r="CA3" s="97">
         <f t="shared" ref="CA3" si="15">BZ3+1</f>
         <v>42212</v>
       </c>
-      <c r="CB3" s="103">
+      <c r="CB3" s="97">
         <f t="shared" ref="CB3" si="16">CA3+1</f>
         <v>42213</v>
       </c>
-      <c r="CC3" s="103">
+      <c r="CC3" s="97">
         <f t="shared" ref="CC3" si="17">CB3+1</f>
         <v>42214</v>
       </c>
-      <c r="CD3" s="103">
+      <c r="CD3" s="97">
         <f t="shared" ref="CD3" si="18">CC3+1</f>
         <v>42215</v>
       </c>
-      <c r="CE3" s="103">
+      <c r="CE3" s="97">
         <f t="shared" ref="CE3" si="19">CD3+1</f>
         <v>42216</v>
       </c>
-      <c r="CF3" s="103">
+      <c r="CF3" s="97">
         <f t="shared" ref="CF3" si="20">CE3+1</f>
         <v>42217</v>
       </c>
-      <c r="CG3" s="103">
+      <c r="CG3" s="97">
         <f t="shared" ref="CG3" si="21">CF3+1</f>
         <v>42218</v>
       </c>
-      <c r="CH3" s="103">
+      <c r="CH3" s="97">
         <f t="shared" ref="CH3" si="22">CG3+1</f>
         <v>42219</v>
       </c>
-      <c r="CI3" s="103">
+      <c r="CI3" s="97">
         <f t="shared" ref="CI3" si="23">CH3+1</f>
         <v>42220</v>
       </c>
-      <c r="CJ3" s="103">
+      <c r="CJ3" s="97">
         <f t="shared" ref="CJ3" si="24">CI3+1</f>
         <v>42221</v>
       </c>
-      <c r="CK3" s="103">
+      <c r="CK3" s="97">
         <f t="shared" ref="CK3" si="25">CJ3+1</f>
         <v>42222</v>
       </c>
-      <c r="CL3" s="103">
+      <c r="CL3" s="97">
         <f t="shared" ref="CL3" si="26">CK3+1</f>
         <v>42223</v>
       </c>
-      <c r="CM3" s="103">
+      <c r="CM3" s="97">
         <f t="shared" ref="CM3" si="27">CL3+1</f>
         <v>42224</v>
       </c>
-      <c r="CN3" s="103">
+      <c r="CN3" s="97">
         <f t="shared" ref="CN3" si="28">CM3+1</f>
         <v>42225</v>
       </c>
-      <c r="CO3" s="103">
+      <c r="CO3" s="97">
         <f t="shared" ref="CO3" si="29">CN3+1</f>
         <v>42226</v>
       </c>
-      <c r="CP3" s="103">
+      <c r="CP3" s="97">
         <f t="shared" ref="CP3" si="30">CO3+1</f>
         <v>42227</v>
       </c>
-      <c r="CQ3" s="103">
+      <c r="CQ3" s="97">
         <f t="shared" ref="CQ3" si="31">CP3+1</f>
         <v>42228</v>
       </c>
-      <c r="CR3" s="103">
+      <c r="CR3" s="97">
         <f t="shared" ref="CR3" si="32">CQ3+1</f>
         <v>42229</v>
       </c>
-      <c r="CS3" s="103">
+      <c r="CS3" s="97">
         <f t="shared" ref="CS3" si="33">CR3+1</f>
         <v>42230</v>
       </c>
-      <c r="CT3" s="103">
+      <c r="CT3" s="97">
         <f t="shared" ref="CT3" si="34">CS3+1</f>
         <v>42231</v>
       </c>
-      <c r="CU3" s="103">
+      <c r="CU3" s="97">
         <f t="shared" ref="CU3" si="35">CT3+1</f>
         <v>42232</v>
       </c>
-      <c r="CV3" s="103">
+      <c r="CV3" s="97">
         <f t="shared" ref="CV3" si="36">CU3+1</f>
         <v>42233</v>
       </c>
-      <c r="CW3" s="103">
+      <c r="CW3" s="97">
         <f t="shared" ref="CW3" si="37">CV3+1</f>
         <v>42234</v>
       </c>
-      <c r="CX3" s="103">
+      <c r="CX3" s="97">
         <f t="shared" ref="CX3" si="38">CW3+1</f>
         <v>42235</v>
       </c>
-      <c r="CY3" s="103">
+      <c r="CY3" s="97">
         <f t="shared" ref="CY3" si="39">CX3+1</f>
         <v>42236</v>
       </c>
-      <c r="CZ3" s="103">
+      <c r="CZ3" s="97">
         <f t="shared" ref="CZ3" si="40">CY3+1</f>
         <v>42237</v>
       </c>
-      <c r="DA3" s="103">
+      <c r="DA3" s="97">
         <f t="shared" ref="DA3" si="41">CZ3+1</f>
         <v>42238</v>
       </c>
-      <c r="DB3" s="103">
+      <c r="DB3" s="97">
         <f t="shared" ref="DB3" si="42">DA3+1</f>
         <v>42239</v>
       </c>
-      <c r="DC3" s="103">
+      <c r="DC3" s="97">
         <f t="shared" ref="DC3" si="43">DB3+1</f>
         <v>42240</v>
       </c>
-      <c r="DD3" s="103">
+      <c r="DD3" s="97">
         <f t="shared" ref="DD3" si="44">DC3+1</f>
         <v>42241</v>
       </c>
-      <c r="DE3" s="103">
+      <c r="DE3" s="97">
         <f t="shared" ref="DE3" si="45">DD3+1</f>
         <v>42242</v>
       </c>
-      <c r="DF3" s="103">
+      <c r="DF3" s="97">
         <f t="shared" ref="DF3" si="46">DE3+1</f>
         <v>42243</v>
       </c>
-      <c r="DG3" s="103">
+      <c r="DG3" s="97">
         <f t="shared" ref="DG3" si="47">DF3+1</f>
         <v>42244</v>
       </c>
-      <c r="DH3" s="103">
+      <c r="DH3" s="97">
         <f t="shared" ref="DH3" si="48">DG3+1</f>
         <v>42245</v>
       </c>
-      <c r="DI3" s="103">
+      <c r="DI3" s="97">
         <f t="shared" ref="DI3" si="49">DH3+1</f>
         <v>42246</v>
       </c>
-      <c r="DJ3" s="103">
+      <c r="DJ3" s="97">
         <f t="shared" ref="DJ3" si="50">DI3+1</f>
         <v>42247</v>
       </c>
-      <c r="DK3" s="103">
+      <c r="DK3" s="97">
         <f t="shared" ref="DK3" si="51">DJ3+1</f>
         <v>42248</v>
       </c>
-      <c r="DL3" s="103">
+      <c r="DL3" s="97">
         <f t="shared" ref="DL3" si="52">DK3+1</f>
         <v>42249</v>
       </c>
-      <c r="DM3" s="103">
+      <c r="DM3" s="97">
         <f t="shared" ref="DM3" si="53">DL3+1</f>
         <v>42250</v>
       </c>
-      <c r="DN3" s="103">
+      <c r="DN3" s="97">
         <f t="shared" ref="DN3" si="54">DM3+1</f>
         <v>42251</v>
       </c>
-      <c r="DO3" s="103">
+      <c r="DO3" s="97">
         <f t="shared" ref="DO3" si="55">DN3+1</f>
         <v>42252</v>
       </c>
-      <c r="DP3" s="103">
+      <c r="DP3" s="97">
         <f t="shared" ref="DP3" si="56">DO3+1</f>
         <v>42253</v>
       </c>
-      <c r="DQ3" s="103">
+      <c r="DQ3" s="97">
         <f t="shared" ref="DQ3" si="57">DP3+1</f>
         <v>42254</v>
       </c>
-      <c r="DR3" s="103">
+      <c r="DR3" s="97">
         <f t="shared" ref="DR3" si="58">DQ3+1</f>
         <v>42255</v>
       </c>
-      <c r="DS3" s="103">
+      <c r="DS3" s="97">
         <f t="shared" ref="DS3" si="59">DR3+1</f>
         <v>42256</v>
       </c>
-      <c r="DT3" s="103">
+      <c r="DT3" s="97">
         <f t="shared" ref="DT3" si="60">DS3+1</f>
         <v>42257</v>
       </c>
-      <c r="DU3" s="103">
+      <c r="DU3" s="97">
         <f t="shared" ref="DU3" si="61">DT3+1</f>
         <v>42258</v>
       </c>
-      <c r="DV3" s="103">
+      <c r="DV3" s="97">
         <f t="shared" ref="DV3" si="62">DU3+1</f>
         <v>42259</v>
       </c>
-      <c r="DW3" s="103">
+      <c r="DW3" s="97">
         <f t="shared" ref="DW3" si="63">DV3+1</f>
         <v>42260</v>
       </c>
-      <c r="DX3" s="103">
+      <c r="DX3" s="97">
         <f t="shared" ref="DX3" si="64">DW3+1</f>
         <v>42261</v>
       </c>
-      <c r="DY3" s="103">
+      <c r="DY3" s="97">
         <f t="shared" ref="DY3" si="65">DX3+1</f>
         <v>42262</v>
       </c>
-      <c r="DZ3" s="103">
+      <c r="DZ3" s="97">
         <f t="shared" ref="DZ3" si="66">DY3+1</f>
         <v>42263</v>
       </c>
-      <c r="EA3" s="103">
+      <c r="EA3" s="97">
         <f t="shared" ref="EA3" si="67">DZ3+1</f>
         <v>42264</v>
       </c>
-      <c r="EB3" s="103">
+      <c r="EB3" s="97">
         <f t="shared" ref="EB3" si="68">EA3+1</f>
         <v>42265</v>
       </c>
-      <c r="EC3" s="103">
+      <c r="EC3" s="97">
         <f t="shared" ref="EC3" si="69">EB3+1</f>
         <v>42266</v>
       </c>
-      <c r="ED3" s="103">
+      <c r="ED3" s="97">
         <f t="shared" ref="ED3" si="70">EC3+1</f>
         <v>42267</v>
       </c>
-      <c r="EE3" s="103">
+      <c r="EE3" s="97">
         <f t="shared" ref="EE3" si="71">ED3+1</f>
         <v>42268</v>
       </c>
-      <c r="EF3" s="103">
+      <c r="EF3" s="97">
         <f t="shared" ref="EF3" si="72">EE3+1</f>
         <v>42269</v>
       </c>
-      <c r="EG3" s="103">
+      <c r="EG3" s="97">
         <f t="shared" ref="EG3" si="73">EF3+1</f>
         <v>42270</v>
       </c>
-      <c r="EH3" s="103">
+      <c r="EH3" s="97">
         <f t="shared" ref="EH3" si="74">EG3+1</f>
         <v>42271</v>
       </c>
-      <c r="EI3" s="103">
+      <c r="EI3" s="97">
         <f t="shared" ref="EI3" si="75">EH3+1</f>
         <v>42272</v>
       </c>
-      <c r="EJ3" s="103">
+      <c r="EJ3" s="97">
         <f t="shared" ref="EJ3" si="76">EI3+1</f>
         <v>42273</v>
       </c>
-      <c r="EK3" s="103">
+      <c r="EK3" s="97">
         <f t="shared" ref="EK3" si="77">EJ3+1</f>
         <v>42274</v>
       </c>
-      <c r="EL3" s="103">
+      <c r="EL3" s="97">
         <f t="shared" ref="EL3" si="78">EK3+1</f>
         <v>42275</v>
       </c>
-      <c r="EM3" s="103">
+      <c r="EM3" s="97">
         <f t="shared" ref="EM3" si="79">EL3+1</f>
         <v>42276</v>
       </c>
-      <c r="EN3" s="103">
+      <c r="EN3" s="97">
         <f t="shared" ref="EN3" si="80">EM3+1</f>
         <v>42277</v>
       </c>
-      <c r="EO3" s="103">
+      <c r="EO3" s="97">
         <f t="shared" ref="EO3" si="81">EN3+1</f>
         <v>42278</v>
       </c>
-      <c r="EP3" s="103">
+      <c r="EP3" s="97">
         <f t="shared" ref="EP3" si="82">EO3+1</f>
         <v>42279</v>
       </c>
-      <c r="EQ3" s="103">
+      <c r="EQ3" s="97">
         <f t="shared" ref="EQ3" si="83">EP3+1</f>
         <v>42280</v>
       </c>
-      <c r="ER3" s="103">
+      <c r="ER3" s="97">
         <f t="shared" ref="ER3" si="84">EQ3+1</f>
         <v>42281</v>
       </c>
-      <c r="ES3" s="103">
+      <c r="ES3" s="97">
         <f t="shared" ref="ES3" si="85">ER3+1</f>
         <v>42282</v>
       </c>
-      <c r="ET3" s="103">
+      <c r="ET3" s="97">
         <f t="shared" ref="ET3" si="86">ES3+1</f>
         <v>42283</v>
       </c>
-      <c r="EU3" s="103">
+      <c r="EU3" s="97">
         <f t="shared" ref="EU3" si="87">ET3+1</f>
         <v>42284</v>
       </c>
-      <c r="EV3" s="103">
+      <c r="EV3" s="97">
         <f t="shared" ref="EV3" si="88">EU3+1</f>
         <v>42285</v>
       </c>
-      <c r="EW3" s="103">
+      <c r="EW3" s="97">
         <f t="shared" ref="EW3" si="89">EV3+1</f>
         <v>42286</v>
       </c>
-      <c r="EX3" s="103">
+      <c r="EX3" s="97">
         <f t="shared" ref="EX3" si="90">EW3+1</f>
         <v>42287</v>
       </c>
-      <c r="EY3" s="103">
+      <c r="EY3" s="97">
         <f t="shared" ref="EY3" si="91">EX3+1</f>
         <v>42288</v>
       </c>
-      <c r="EZ3" s="103">
+      <c r="EZ3" s="97">
         <f t="shared" ref="EZ3" si="92">EY3+1</f>
         <v>42289</v>
       </c>
-      <c r="FA3" s="103">
+      <c r="FA3" s="97">
         <f t="shared" ref="FA3" si="93">EZ3+1</f>
         <v>42290</v>
       </c>
-      <c r="FB3" s="103">
+      <c r="FB3" s="97">
         <f t="shared" ref="FB3" si="94">FA3+1</f>
         <v>42291</v>
       </c>
-      <c r="FC3" s="103">
+      <c r="FC3" s="97">
         <f t="shared" ref="FC3" si="95">FB3+1</f>
         <v>42292</v>
       </c>
-      <c r="FD3" s="103">
+      <c r="FD3" s="97">
         <f t="shared" ref="FD3" si="96">FC3+1</f>
         <v>42293</v>
       </c>
-      <c r="FE3" s="103">
+      <c r="FE3" s="97">
         <f t="shared" ref="FE3" si="97">FD3+1</f>
         <v>42294</v>
       </c>
-      <c r="FF3" s="103">
+      <c r="FF3" s="97">
         <f t="shared" ref="FF3" si="98">FE3+1</f>
         <v>42295</v>
       </c>
-      <c r="FG3" s="103">
+      <c r="FG3" s="97">
         <f t="shared" ref="FG3" si="99">FF3+1</f>
         <v>42296</v>
       </c>
-      <c r="FH3" s="103">
+      <c r="FH3" s="97">
         <f t="shared" ref="FH3" si="100">FG3+1</f>
         <v>42297</v>
       </c>
-      <c r="FI3" s="103">
+      <c r="FI3" s="97">
         <f t="shared" ref="FI3" si="101">FH3+1</f>
         <v>42298</v>
       </c>
-      <c r="FJ3" s="103">
+      <c r="FJ3" s="97">
         <f t="shared" ref="FJ3" si="102">FI3+1</f>
         <v>42299</v>
       </c>
-      <c r="FK3" s="103">
+      <c r="FK3" s="97">
         <f t="shared" ref="FK3" si="103">FJ3+1</f>
         <v>42300</v>
       </c>
-      <c r="FL3" s="103">
+      <c r="FL3" s="97">
         <f t="shared" ref="FL3" si="104">FK3+1</f>
         <v>42301</v>
       </c>
-      <c r="FM3" s="103">
+      <c r="FM3" s="97">
         <f t="shared" ref="FM3" si="105">FL3+1</f>
         <v>42302</v>
       </c>
-      <c r="FN3" s="103">
+      <c r="FN3" s="97">
         <f t="shared" ref="FN3" si="106">FM3+1</f>
         <v>42303</v>
       </c>
-      <c r="FO3" s="103">
+      <c r="FO3" s="97">
         <f t="shared" ref="FO3" si="107">FN3+1</f>
         <v>42304</v>
       </c>
-      <c r="FP3" s="103">
+      <c r="FP3" s="97">
         <f t="shared" ref="FP3" si="108">FO3+1</f>
         <v>42305</v>
       </c>
-      <c r="FQ3" s="103">
+      <c r="FQ3" s="97">
         <f t="shared" ref="FQ3" si="109">FP3+1</f>
         <v>42306</v>
       </c>
-      <c r="FR3" s="103">
+      <c r="FR3" s="97">
         <f t="shared" ref="FR3" si="110">FQ3+1</f>
         <v>42307</v>
       </c>
-      <c r="FS3" s="103">
+      <c r="FS3" s="97">
         <f t="shared" ref="FS3" si="111">FR3+1</f>
         <v>42308</v>
       </c>
-      <c r="FT3" s="103">
+      <c r="FT3" s="97">
         <f t="shared" ref="FT3" si="112">FS3+1</f>
         <v>42309</v>
       </c>
-      <c r="FU3" s="103">
+      <c r="FU3" s="97">
         <f t="shared" ref="FU3" si="113">FT3+1</f>
         <v>42310</v>
       </c>
-      <c r="FV3" s="103">
+      <c r="FV3" s="97">
         <f t="shared" ref="FV3" si="114">FU3+1</f>
         <v>42311</v>
       </c>
-      <c r="FW3" s="103">
+      <c r="FW3" s="97">
         <f t="shared" ref="FW3" si="115">FV3+1</f>
         <v>42312</v>
       </c>
-      <c r="FX3" s="103">
+      <c r="FX3" s="97">
         <f t="shared" ref="FX3" si="116">FW3+1</f>
         <v>42313</v>
       </c>
-      <c r="FY3" s="103">
+      <c r="FY3" s="97">
         <f t="shared" ref="FY3" si="117">FX3+1</f>
         <v>42314</v>
       </c>
-      <c r="FZ3" s="103">
+      <c r="FZ3" s="97">
         <f t="shared" ref="FZ3" si="118">FY3+1</f>
         <v>42315</v>
       </c>
-      <c r="GA3" s="103">
+      <c r="GA3" s="97">
         <f t="shared" ref="GA3" si="119">FZ3+1</f>
         <v>42316</v>
       </c>
-      <c r="GB3" s="103">
+      <c r="GB3" s="97">
         <f t="shared" ref="GB3" si="120">GA3+1</f>
         <v>42317</v>
       </c>
-      <c r="GC3" s="103">
+      <c r="GC3" s="97">
         <f t="shared" ref="GC3" si="121">GB3+1</f>
         <v>42318</v>
       </c>
-      <c r="GD3" s="103">
+      <c r="GD3" s="97">
         <f t="shared" ref="GD3" si="122">GC3+1</f>
         <v>42319</v>
       </c>
-      <c r="GE3" s="103">
+      <c r="GE3" s="97">
         <f t="shared" ref="GE3" si="123">GD3+1</f>
         <v>42320</v>
       </c>
-      <c r="GF3" s="103">
+      <c r="GF3" s="97">
         <f t="shared" ref="GF3" si="124">GE3+1</f>
         <v>42321</v>
       </c>
-      <c r="GG3" s="103">
+      <c r="GG3" s="97">
         <f t="shared" ref="GG3" si="125">GF3+1</f>
         <v>42322</v>
       </c>
-      <c r="GH3" s="103">
+      <c r="GH3" s="97">
         <f t="shared" ref="GH3" si="126">GG3+1</f>
         <v>42323</v>
       </c>
-      <c r="GI3" s="103">
+      <c r="GI3" s="97">
         <f t="shared" ref="GI3" si="127">GH3+1</f>
         <v>42324</v>
       </c>
-      <c r="GJ3" s="103">
+      <c r="GJ3" s="97">
         <f t="shared" ref="GJ3" si="128">GI3+1</f>
         <v>42325</v>
       </c>
-      <c r="GK3" s="103">
+      <c r="GK3" s="97">
         <f t="shared" ref="GK3" si="129">GJ3+1</f>
         <v>42326</v>
       </c>
-      <c r="GL3" s="103">
+      <c r="GL3" s="97">
         <f t="shared" ref="GL3" si="130">GK3+1</f>
         <v>42327</v>
       </c>
-      <c r="GM3" s="103">
+      <c r="GM3" s="97">
         <f t="shared" ref="GM3" si="131">GL3+1</f>
         <v>42328</v>
       </c>
-      <c r="GN3" s="103">
+      <c r="GN3" s="97">
         <f t="shared" ref="GN3" si="132">GM3+1</f>
         <v>42329</v>
       </c>
-      <c r="GO3" s="103">
+      <c r="GO3" s="97">
         <f t="shared" ref="GO3" si="133">GN3+1</f>
         <v>42330</v>
       </c>
-      <c r="GP3" s="103">
+      <c r="GP3" s="97">
         <f t="shared" ref="GP3" si="134">GO3+1</f>
         <v>42331</v>
       </c>
-      <c r="GQ3" s="103">
+      <c r="GQ3" s="97">
         <f t="shared" ref="GQ3" si="135">GP3+1</f>
         <v>42332</v>
       </c>
-      <c r="GR3" s="103">
+      <c r="GR3" s="97">
         <f t="shared" ref="GR3" si="136">GQ3+1</f>
         <v>42333</v>
       </c>
-      <c r="GS3" s="103">
+      <c r="GS3" s="97">
         <f t="shared" ref="GS3" si="137">GR3+1</f>
         <v>42334</v>
       </c>
-      <c r="GT3" s="103">
+      <c r="GT3" s="97">
         <f t="shared" ref="GT3" si="138">GS3+1</f>
         <v>42335</v>
       </c>
-      <c r="GU3" s="103">
+      <c r="GU3" s="97">
         <f t="shared" ref="GU3" si="139">GT3+1</f>
         <v>42336</v>
       </c>
-      <c r="GV3" s="103">
+      <c r="GV3" s="97">
         <f t="shared" ref="GV3" si="140">GU3+1</f>
         <v>42337</v>
       </c>
-      <c r="GW3" s="103">
+      <c r="GW3" s="97">
         <f t="shared" ref="GW3" si="141">GV3+1</f>
         <v>42338</v>
       </c>
-      <c r="GX3" s="103">
+      <c r="GX3" s="97">
         <f t="shared" ref="GX3" si="142">GW3+1</f>
         <v>42339</v>
       </c>
-      <c r="GY3" s="103">
+      <c r="GY3" s="97">
         <f t="shared" ref="GY3" si="143">GX3+1</f>
         <v>42340</v>
       </c>
-      <c r="GZ3" s="103">
+      <c r="GZ3" s="97">
         <f t="shared" ref="GZ3" si="144">GY3+1</f>
         <v>42341</v>
       </c>
-      <c r="HA3" s="103">
+      <c r="HA3" s="97">
         <f t="shared" ref="HA3" si="145">GZ3+1</f>
         <v>42342</v>
       </c>
-      <c r="HB3" s="103">
+      <c r="HB3" s="97">
         <f t="shared" ref="HB3" si="146">HA3+1</f>
         <v>42343</v>
       </c>
-      <c r="HC3" s="103">
+      <c r="HC3" s="97">
         <f t="shared" ref="HC3" si="147">HB3+1</f>
         <v>42344</v>
       </c>
-      <c r="HD3" s="103">
+      <c r="HD3" s="97">
         <f t="shared" ref="HD3" si="148">HC3+1</f>
         <v>42345</v>
       </c>
-      <c r="HE3" s="103">
+      <c r="HE3" s="97">
         <f t="shared" ref="HE3" si="149">HD3+1</f>
         <v>42346</v>
       </c>
-      <c r="HF3" s="103">
+      <c r="HF3" s="97">
         <f t="shared" ref="HF3" si="150">HE3+1</f>
         <v>42347</v>
       </c>
-      <c r="HG3" s="103">
+      <c r="HG3" s="97">
         <f t="shared" ref="HG3" si="151">HF3+1</f>
         <v>42348</v>
       </c>
-      <c r="HH3" s="103">
+      <c r="HH3" s="97">
         <f t="shared" ref="HH3" si="152">HG3+1</f>
         <v>42349</v>
       </c>
-      <c r="HI3" s="103">
+      <c r="HI3" s="97">
         <f t="shared" ref="HI3" si="153">HH3+1</f>
         <v>42350</v>
       </c>
-      <c r="HJ3" s="103">
+      <c r="HJ3" s="97">
         <f t="shared" ref="HJ3" si="154">HI3+1</f>
         <v>42351</v>
       </c>
-      <c r="HK3" s="103">
+      <c r="HK3" s="97">
         <f t="shared" ref="HK3" si="155">HJ3+1</f>
         <v>42352</v>
       </c>
-      <c r="HL3" s="103">
+      <c r="HL3" s="97">
         <f t="shared" ref="HL3" si="156">HK3+1</f>
         <v>42353</v>
       </c>
-      <c r="HM3" s="103">
+      <c r="HM3" s="97">
         <f t="shared" ref="HM3" si="157">HL3+1</f>
         <v>42354</v>
       </c>
-      <c r="HN3" s="103">
+      <c r="HN3" s="97">
         <f t="shared" ref="HN3" si="158">HM3+1</f>
         <v>42355</v>
       </c>
-      <c r="HO3" s="103">
+      <c r="HO3" s="97">
         <f t="shared" ref="HO3" si="159">HN3+1</f>
         <v>42356</v>
       </c>
-      <c r="HP3" s="103">
+      <c r="HP3" s="97">
         <f t="shared" ref="HP3" si="160">HO3+1</f>
         <v>42357</v>
       </c>
-      <c r="HQ3" s="103">
+      <c r="HQ3" s="97">
         <f t="shared" ref="HQ3" si="161">HP3+1</f>
         <v>42358</v>
       </c>
-      <c r="HR3" s="103">
+      <c r="HR3" s="97">
         <f t="shared" ref="HR3" si="162">HQ3+1</f>
         <v>42359</v>
       </c>
-      <c r="HS3" s="103">
+      <c r="HS3" s="97">
         <f t="shared" ref="HS3" si="163">HR3+1</f>
         <v>42360</v>
       </c>
-      <c r="HT3" s="103">
+      <c r="HT3" s="97">
         <f t="shared" ref="HT3" si="164">HS3+1</f>
         <v>42361</v>
       </c>
-      <c r="HU3" s="103">
+      <c r="HU3" s="97">
         <f t="shared" ref="HU3" si="165">HT3+1</f>
         <v>42362</v>
       </c>
-      <c r="HV3" s="103">
+      <c r="HV3" s="97">
         <f t="shared" ref="HV3" si="166">HU3+1</f>
         <v>42363</v>
       </c>
-      <c r="HW3" s="103">
+      <c r="HW3" s="97">
         <f t="shared" ref="HW3" si="167">HV3+1</f>
         <v>42364</v>
       </c>
-      <c r="HX3" s="103">
+      <c r="HX3" s="97">
         <f t="shared" ref="HX3" si="168">HW3+1</f>
         <v>42365</v>
       </c>
-      <c r="HY3" s="103">
+      <c r="HY3" s="97">
         <f t="shared" ref="HY3" si="169">HX3+1</f>
         <v>42366</v>
       </c>
-      <c r="HZ3" s="103">
+      <c r="HZ3" s="97">
         <f t="shared" ref="HZ3" si="170">HY3+1</f>
         <v>42367</v>
       </c>
-      <c r="IA3" s="103">
+      <c r="IA3" s="97">
         <f t="shared" ref="IA3" si="171">HZ3+1</f>
         <v>42368</v>
       </c>
-      <c r="IB3" s="103">
+      <c r="IB3" s="97">
         <f t="shared" ref="IB3" si="172">IA3+1</f>
         <v>42369</v>
       </c>
-      <c r="IC3" s="103">
+      <c r="IC3" s="97">
         <f t="shared" ref="IC3" si="173">IB3+1</f>
         <v>42370</v>
       </c>
-      <c r="ID3" s="103">
+      <c r="ID3" s="97">
         <f t="shared" ref="ID3" si="174">IC3+1</f>
         <v>42371</v>
       </c>
-      <c r="IE3" s="103">
+      <c r="IE3" s="97">
         <f t="shared" ref="IE3" si="175">ID3+1</f>
         <v>42372</v>
       </c>
-      <c r="IF3" s="103">
+      <c r="IF3" s="97">
         <f t="shared" ref="IF3" si="176">IE3+1</f>
         <v>42373</v>
       </c>
-      <c r="IG3" s="103">
+      <c r="IG3" s="97">
         <f t="shared" ref="IG3" si="177">IF3+1</f>
         <v>42374</v>
       </c>
-      <c r="IH3" s="103">
+      <c r="IH3" s="97">
         <f t="shared" ref="IH3" si="178">IG3+1</f>
         <v>42375</v>
       </c>
-      <c r="II3" s="103">
+      <c r="II3" s="97">
         <f t="shared" ref="II3" si="179">IH3+1</f>
         <v>42376</v>
       </c>
-      <c r="IJ3" s="103">
+      <c r="IJ3" s="97">
         <f t="shared" ref="IJ3" si="180">II3+1</f>
         <v>42377</v>
       </c>
-      <c r="IK3" s="103">
+      <c r="IK3" s="97">
         <f t="shared" ref="IK3" si="181">IJ3+1</f>
         <v>42378</v>
       </c>
-      <c r="IL3" s="103">
+      <c r="IL3" s="97">
         <f t="shared" ref="IL3" si="182">IK3+1</f>
         <v>42379</v>
       </c>
-      <c r="IM3" s="103">
+      <c r="IM3" s="97">
         <f t="shared" ref="IM3" si="183">IL3+1</f>
         <v>42380</v>
       </c>
-      <c r="IN3" s="103">
+      <c r="IN3" s="97">
         <f t="shared" ref="IN3" si="184">IM3+1</f>
         <v>42381</v>
       </c>
-      <c r="IO3" s="103">
+      <c r="IO3" s="97">
         <f t="shared" ref="IO3" si="185">IN3+1</f>
         <v>42382</v>
       </c>
-      <c r="IP3" s="103">
+      <c r="IP3" s="97">
         <f t="shared" ref="IP3" si="186">IO3+1</f>
         <v>42383</v>
       </c>
-      <c r="IQ3" s="103">
+      <c r="IQ3" s="97">
         <f t="shared" ref="IQ3" si="187">IP3+1</f>
         <v>42384</v>
       </c>
-      <c r="IR3" s="103">
+      <c r="IR3" s="97">
         <f t="shared" ref="IR3" si="188">IQ3+1</f>
         <v>42385</v>
       </c>
-      <c r="IS3" s="104">
+      <c r="IS3" s="98">
         <f t="shared" ref="IS3" si="189">IR3+1</f>
         <v>42386</v>
       </c>
     </row>
     <row r="4" spans="1:253" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="138" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="90">
+      <c r="C4" s="132"/>
+      <c r="D4" s="135">
         <v>42142</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="89" t="str">
+      <c r="E4" s="135"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="130" t="str">
         <f>"Week "&amp;(I3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89" t="str">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130" t="str">
         <f>"Week "&amp;(P3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89" t="str">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130" t="str">
         <f>"Week "&amp;(W3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89" t="str">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130" t="str">
         <f>"Week "&amp;(AD3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89" t="str">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130" t="str">
         <f>"Week "&amp;(AK3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89" t="str">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130" t="str">
         <f>"Week "&amp;(AR3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89" t="str">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130" t="str">
         <f>"Week "&amp;(AY3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89" t="str">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130" t="str">
         <f>"Week "&amp;(BF3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="89" t="str">
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="130"/>
+      <c r="BM4" s="130" t="str">
         <f>"Week "&amp;(BM3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="89" t="str">
+      <c r="BN4" s="130"/>
+      <c r="BO4" s="130"/>
+      <c r="BP4" s="130"/>
+      <c r="BQ4" s="130"/>
+      <c r="BR4" s="130"/>
+      <c r="BS4" s="130"/>
+      <c r="BT4" s="130" t="str">
         <f>"Week "&amp;(BT3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="89" t="str">
+      <c r="BU4" s="130"/>
+      <c r="BV4" s="130"/>
+      <c r="BW4" s="130"/>
+      <c r="BX4" s="130"/>
+      <c r="BY4" s="130"/>
+      <c r="BZ4" s="130"/>
+      <c r="CA4" s="130" t="str">
         <f>"Week "&amp;(CA3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="89"/>
-      <c r="CH4" s="89" t="str">
+      <c r="CB4" s="130"/>
+      <c r="CC4" s="130"/>
+      <c r="CD4" s="130"/>
+      <c r="CE4" s="130"/>
+      <c r="CF4" s="130"/>
+      <c r="CG4" s="130"/>
+      <c r="CH4" s="130" t="str">
         <f>"Week "&amp;(CH3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CI4" s="89"/>
-      <c r="CJ4" s="89"/>
-      <c r="CK4" s="89"/>
-      <c r="CL4" s="89"/>
-      <c r="CM4" s="89"/>
-      <c r="CN4" s="89"/>
-      <c r="CO4" s="89" t="str">
+      <c r="CI4" s="130"/>
+      <c r="CJ4" s="130"/>
+      <c r="CK4" s="130"/>
+      <c r="CL4" s="130"/>
+      <c r="CM4" s="130"/>
+      <c r="CN4" s="130"/>
+      <c r="CO4" s="130" t="str">
         <f>"Week "&amp;(CO3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CP4" s="89"/>
-      <c r="CQ4" s="89"/>
-      <c r="CR4" s="89"/>
-      <c r="CS4" s="89"/>
-      <c r="CT4" s="89"/>
-      <c r="CU4" s="89"/>
-      <c r="CV4" s="89" t="str">
+      <c r="CP4" s="130"/>
+      <c r="CQ4" s="130"/>
+      <c r="CR4" s="130"/>
+      <c r="CS4" s="130"/>
+      <c r="CT4" s="130"/>
+      <c r="CU4" s="130"/>
+      <c r="CV4" s="130" t="str">
         <f>"Week "&amp;(CV3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CW4" s="89"/>
-      <c r="CX4" s="89"/>
-      <c r="CY4" s="89"/>
-      <c r="CZ4" s="89"/>
-      <c r="DA4" s="89"/>
-      <c r="DB4" s="89"/>
-      <c r="DC4" s="89" t="str">
+      <c r="CW4" s="130"/>
+      <c r="CX4" s="130"/>
+      <c r="CY4" s="130"/>
+      <c r="CZ4" s="130"/>
+      <c r="DA4" s="130"/>
+      <c r="DB4" s="130"/>
+      <c r="DC4" s="130" t="str">
         <f>"Week "&amp;(DC3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DD4" s="89"/>
-      <c r="DE4" s="89"/>
-      <c r="DF4" s="89"/>
-      <c r="DG4" s="89"/>
-      <c r="DH4" s="89"/>
-      <c r="DI4" s="89"/>
-      <c r="DJ4" s="89" t="str">
+      <c r="DD4" s="130"/>
+      <c r="DE4" s="130"/>
+      <c r="DF4" s="130"/>
+      <c r="DG4" s="130"/>
+      <c r="DH4" s="130"/>
+      <c r="DI4" s="130"/>
+      <c r="DJ4" s="130" t="str">
         <f>"Week "&amp;(DJ3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DK4" s="89"/>
-      <c r="DL4" s="89"/>
-      <c r="DM4" s="89"/>
-      <c r="DN4" s="89"/>
-      <c r="DO4" s="89"/>
-      <c r="DP4" s="89"/>
-      <c r="DQ4" s="89" t="str">
+      <c r="DK4" s="130"/>
+      <c r="DL4" s="130"/>
+      <c r="DM4" s="130"/>
+      <c r="DN4" s="130"/>
+      <c r="DO4" s="130"/>
+      <c r="DP4" s="130"/>
+      <c r="DQ4" s="130" t="str">
         <f>"Week "&amp;(DQ3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="DR4" s="89"/>
-      <c r="DS4" s="89"/>
-      <c r="DT4" s="89"/>
-      <c r="DU4" s="89"/>
-      <c r="DV4" s="89"/>
-      <c r="DW4" s="89"/>
-      <c r="DX4" s="89" t="str">
+      <c r="DR4" s="130"/>
+      <c r="DS4" s="130"/>
+      <c r="DT4" s="130"/>
+      <c r="DU4" s="130"/>
+      <c r="DV4" s="130"/>
+      <c r="DW4" s="130"/>
+      <c r="DX4" s="130" t="str">
         <f>"Week "&amp;(DX3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="DY4" s="89"/>
-      <c r="DZ4" s="89"/>
-      <c r="EA4" s="89"/>
-      <c r="EB4" s="89"/>
-      <c r="EC4" s="89"/>
-      <c r="ED4" s="89"/>
-      <c r="EE4" s="89" t="str">
+      <c r="DY4" s="130"/>
+      <c r="DZ4" s="130"/>
+      <c r="EA4" s="130"/>
+      <c r="EB4" s="130"/>
+      <c r="EC4" s="130"/>
+      <c r="ED4" s="130"/>
+      <c r="EE4" s="130" t="str">
         <f>"Week "&amp;(EE3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EF4" s="89"/>
-      <c r="EG4" s="89"/>
-      <c r="EH4" s="89"/>
-      <c r="EI4" s="89"/>
-      <c r="EJ4" s="89"/>
-      <c r="EK4" s="89"/>
-      <c r="EL4" s="89" t="str">
+      <c r="EF4" s="130"/>
+      <c r="EG4" s="130"/>
+      <c r="EH4" s="130"/>
+      <c r="EI4" s="130"/>
+      <c r="EJ4" s="130"/>
+      <c r="EK4" s="130"/>
+      <c r="EL4" s="130" t="str">
         <f>"Week "&amp;(EL3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EM4" s="89"/>
-      <c r="EN4" s="89"/>
-      <c r="EO4" s="89"/>
-      <c r="EP4" s="89"/>
-      <c r="EQ4" s="89"/>
-      <c r="ER4" s="89"/>
-      <c r="ES4" s="89" t="str">
+      <c r="EM4" s="130"/>
+      <c r="EN4" s="130"/>
+      <c r="EO4" s="130"/>
+      <c r="EP4" s="130"/>
+      <c r="EQ4" s="130"/>
+      <c r="ER4" s="130"/>
+      <c r="ES4" s="130" t="str">
         <f>"Week "&amp;(ES3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="ET4" s="89"/>
-      <c r="EU4" s="89"/>
-      <c r="EV4" s="89"/>
-      <c r="EW4" s="89"/>
-      <c r="EX4" s="89"/>
-      <c r="EY4" s="89"/>
-      <c r="EZ4" s="89" t="str">
+      <c r="ET4" s="130"/>
+      <c r="EU4" s="130"/>
+      <c r="EV4" s="130"/>
+      <c r="EW4" s="130"/>
+      <c r="EX4" s="130"/>
+      <c r="EY4" s="130"/>
+      <c r="EZ4" s="130" t="str">
         <f>"Week "&amp;(EZ3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FA4" s="89"/>
-      <c r="FB4" s="89"/>
-      <c r="FC4" s="89"/>
-      <c r="FD4" s="89"/>
-      <c r="FE4" s="89"/>
-      <c r="FF4" s="89"/>
-      <c r="FG4" s="89" t="str">
+      <c r="FA4" s="130"/>
+      <c r="FB4" s="130"/>
+      <c r="FC4" s="130"/>
+      <c r="FD4" s="130"/>
+      <c r="FE4" s="130"/>
+      <c r="FF4" s="130"/>
+      <c r="FG4" s="130" t="str">
         <f>"Week "&amp;(FG3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FH4" s="89"/>
-      <c r="FI4" s="89"/>
-      <c r="FJ4" s="89"/>
-      <c r="FK4" s="89"/>
-      <c r="FL4" s="89"/>
-      <c r="FM4" s="89"/>
-      <c r="FN4" s="89" t="str">
+      <c r="FH4" s="130"/>
+      <c r="FI4" s="130"/>
+      <c r="FJ4" s="130"/>
+      <c r="FK4" s="130"/>
+      <c r="FL4" s="130"/>
+      <c r="FM4" s="130"/>
+      <c r="FN4" s="130" t="str">
         <f>"Week "&amp;(FN3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FO4" s="89"/>
-      <c r="FP4" s="89"/>
-      <c r="FQ4" s="89"/>
-      <c r="FR4" s="89"/>
-      <c r="FS4" s="89"/>
-      <c r="FT4" s="89"/>
-      <c r="FU4" s="89" t="str">
+      <c r="FO4" s="130"/>
+      <c r="FP4" s="130"/>
+      <c r="FQ4" s="130"/>
+      <c r="FR4" s="130"/>
+      <c r="FS4" s="130"/>
+      <c r="FT4" s="130"/>
+      <c r="FU4" s="130" t="str">
         <f>"Week "&amp;(FU3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="FV4" s="89"/>
-      <c r="FW4" s="89"/>
-      <c r="FX4" s="89"/>
-      <c r="FY4" s="89"/>
-      <c r="FZ4" s="89"/>
-      <c r="GA4" s="89"/>
-      <c r="GB4" s="89" t="str">
+      <c r="FV4" s="130"/>
+      <c r="FW4" s="130"/>
+      <c r="FX4" s="130"/>
+      <c r="FY4" s="130"/>
+      <c r="FZ4" s="130"/>
+      <c r="GA4" s="130"/>
+      <c r="GB4" s="130" t="str">
         <f>"Week "&amp;(GB3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GC4" s="89"/>
-      <c r="GD4" s="89"/>
-      <c r="GE4" s="89"/>
-      <c r="GF4" s="89"/>
-      <c r="GG4" s="89"/>
-      <c r="GH4" s="89"/>
-      <c r="GI4" s="89" t="str">
+      <c r="GC4" s="130"/>
+      <c r="GD4" s="130"/>
+      <c r="GE4" s="130"/>
+      <c r="GF4" s="130"/>
+      <c r="GG4" s="130"/>
+      <c r="GH4" s="130"/>
+      <c r="GI4" s="130" t="str">
         <f>"Week "&amp;(GI3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GJ4" s="89"/>
-      <c r="GK4" s="89"/>
-      <c r="GL4" s="89"/>
-      <c r="GM4" s="89"/>
-      <c r="GN4" s="89"/>
-      <c r="GO4" s="89"/>
-      <c r="GP4" s="89" t="str">
+      <c r="GJ4" s="130"/>
+      <c r="GK4" s="130"/>
+      <c r="GL4" s="130"/>
+      <c r="GM4" s="130"/>
+      <c r="GN4" s="130"/>
+      <c r="GO4" s="130"/>
+      <c r="GP4" s="130" t="str">
         <f>"Week "&amp;(GP3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GQ4" s="89"/>
-      <c r="GR4" s="89"/>
-      <c r="GS4" s="89"/>
-      <c r="GT4" s="89"/>
-      <c r="GU4" s="89"/>
-      <c r="GV4" s="89"/>
-      <c r="GW4" s="89" t="str">
+      <c r="GQ4" s="130"/>
+      <c r="GR4" s="130"/>
+      <c r="GS4" s="130"/>
+      <c r="GT4" s="130"/>
+      <c r="GU4" s="130"/>
+      <c r="GV4" s="130"/>
+      <c r="GW4" s="130" t="str">
         <f>"Week "&amp;(GW3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="GX4" s="89"/>
-      <c r="GY4" s="89"/>
-      <c r="GZ4" s="89"/>
-      <c r="HA4" s="89"/>
-      <c r="HB4" s="89"/>
-      <c r="HC4" s="89"/>
-      <c r="HD4" s="89" t="str">
+      <c r="GX4" s="130"/>
+      <c r="GY4" s="130"/>
+      <c r="GZ4" s="130"/>
+      <c r="HA4" s="130"/>
+      <c r="HB4" s="130"/>
+      <c r="HC4" s="130"/>
+      <c r="HD4" s="130" t="str">
         <f>"Week "&amp;(HD3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HE4" s="89"/>
-      <c r="HF4" s="89"/>
-      <c r="HG4" s="89"/>
-      <c r="HH4" s="89"/>
-      <c r="HI4" s="89"/>
-      <c r="HJ4" s="89"/>
-      <c r="HK4" s="89" t="str">
+      <c r="HE4" s="130"/>
+      <c r="HF4" s="130"/>
+      <c r="HG4" s="130"/>
+      <c r="HH4" s="130"/>
+      <c r="HI4" s="130"/>
+      <c r="HJ4" s="130"/>
+      <c r="HK4" s="130" t="str">
         <f>"Week "&amp;(HK3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HL4" s="89"/>
-      <c r="HM4" s="89"/>
-      <c r="HN4" s="89"/>
-      <c r="HO4" s="89"/>
-      <c r="HP4" s="89"/>
-      <c r="HQ4" s="89"/>
-      <c r="HR4" s="89" t="str">
+      <c r="HL4" s="130"/>
+      <c r="HM4" s="130"/>
+      <c r="HN4" s="130"/>
+      <c r="HO4" s="130"/>
+      <c r="HP4" s="130"/>
+      <c r="HQ4" s="130"/>
+      <c r="HR4" s="130" t="str">
         <f>"Week "&amp;(HR3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="HS4" s="89"/>
-      <c r="HT4" s="89"/>
-      <c r="HU4" s="89"/>
-      <c r="HV4" s="89"/>
-      <c r="HW4" s="89"/>
-      <c r="HX4" s="89"/>
-      <c r="HY4" s="89" t="str">
+      <c r="HS4" s="130"/>
+      <c r="HT4" s="130"/>
+      <c r="HU4" s="130"/>
+      <c r="HV4" s="130"/>
+      <c r="HW4" s="130"/>
+      <c r="HX4" s="130"/>
+      <c r="HY4" s="130" t="str">
         <f>"Week "&amp;(HY3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="HZ4" s="89"/>
-      <c r="IA4" s="89"/>
-      <c r="IB4" s="89"/>
-      <c r="IC4" s="89"/>
-      <c r="ID4" s="89"/>
-      <c r="IE4" s="89"/>
-      <c r="IF4" s="89" t="str">
+      <c r="HZ4" s="130"/>
+      <c r="IA4" s="130"/>
+      <c r="IB4" s="130"/>
+      <c r="IC4" s="130"/>
+      <c r="ID4" s="130"/>
+      <c r="IE4" s="130"/>
+      <c r="IF4" s="130" t="str">
         <f>"Week "&amp;(IF3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IG4" s="89"/>
-      <c r="IH4" s="89"/>
-      <c r="II4" s="89"/>
-      <c r="IJ4" s="89"/>
-      <c r="IK4" s="89"/>
-      <c r="IL4" s="89"/>
-      <c r="IM4" s="89" t="str">
+      <c r="IG4" s="130"/>
+      <c r="IH4" s="130"/>
+      <c r="II4" s="130"/>
+      <c r="IJ4" s="130"/>
+      <c r="IK4" s="130"/>
+      <c r="IL4" s="130"/>
+      <c r="IM4" s="130" t="str">
         <f>"Week "&amp;(IM3-($D$4-WEEKDAY($D$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="IN4" s="89"/>
-      <c r="IO4" s="89"/>
-      <c r="IP4" s="89"/>
-      <c r="IQ4" s="89"/>
-      <c r="IR4" s="89"/>
-      <c r="IS4" s="107"/>
+      <c r="IN4" s="130"/>
+      <c r="IO4" s="130"/>
+      <c r="IP4" s="130"/>
+      <c r="IQ4" s="130"/>
+      <c r="IR4" s="130"/>
+      <c r="IS4" s="136"/>
     </row>
     <row r="5" spans="1:253" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="138" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="88">
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="129">
         <f>I3</f>
         <v>42142</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88">
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129">
         <f>P3</f>
         <v>42149</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88">
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129">
         <f>W3</f>
         <v>42156</v>
       </c>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88">
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129">
         <f>AD3</f>
         <v>42163</v>
       </c>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88">
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129">
         <f>AK3</f>
         <v>42170</v>
       </c>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88">
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129">
         <f>AR3</f>
         <v>42177</v>
       </c>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88">
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129">
         <f>AY3</f>
         <v>42184</v>
       </c>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88">
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129">
         <f>BF3</f>
         <v>42191</v>
       </c>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="88"/>
-      <c r="BK5" s="88"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="88">
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129">
         <f t="shared" ref="BM5" si="190">BM3</f>
         <v>42198</v>
       </c>
-      <c r="BN5" s="88"/>
-      <c r="BO5" s="88"/>
-      <c r="BP5" s="88"/>
-      <c r="BQ5" s="88"/>
-      <c r="BR5" s="88"/>
-      <c r="BS5" s="88"/>
-      <c r="BT5" s="88">
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="129"/>
+      <c r="BP5" s="129"/>
+      <c r="BQ5" s="129"/>
+      <c r="BR5" s="129"/>
+      <c r="BS5" s="129"/>
+      <c r="BT5" s="129">
         <f t="shared" ref="BT5" si="191">BT3</f>
         <v>42205</v>
       </c>
-      <c r="BU5" s="88"/>
-      <c r="BV5" s="88"/>
-      <c r="BW5" s="88"/>
-      <c r="BX5" s="88"/>
-      <c r="BY5" s="88"/>
-      <c r="BZ5" s="88"/>
-      <c r="CA5" s="88">
+      <c r="BU5" s="129"/>
+      <c r="BV5" s="129"/>
+      <c r="BW5" s="129"/>
+      <c r="BX5" s="129"/>
+      <c r="BY5" s="129"/>
+      <c r="BZ5" s="129"/>
+      <c r="CA5" s="129">
         <f t="shared" ref="CA5" si="192">CA3</f>
         <v>42212</v>
       </c>
-      <c r="CB5" s="88"/>
-      <c r="CC5" s="88"/>
-      <c r="CD5" s="88"/>
-      <c r="CE5" s="88"/>
-      <c r="CF5" s="88"/>
-      <c r="CG5" s="88"/>
-      <c r="CH5" s="88">
+      <c r="CB5" s="129"/>
+      <c r="CC5" s="129"/>
+      <c r="CD5" s="129"/>
+      <c r="CE5" s="129"/>
+      <c r="CF5" s="129"/>
+      <c r="CG5" s="129"/>
+      <c r="CH5" s="129">
         <f t="shared" ref="CH5" si="193">CH3</f>
         <v>42219</v>
       </c>
-      <c r="CI5" s="88"/>
-      <c r="CJ5" s="88"/>
-      <c r="CK5" s="88"/>
-      <c r="CL5" s="88"/>
-      <c r="CM5" s="88"/>
-      <c r="CN5" s="88"/>
-      <c r="CO5" s="88">
+      <c r="CI5" s="129"/>
+      <c r="CJ5" s="129"/>
+      <c r="CK5" s="129"/>
+      <c r="CL5" s="129"/>
+      <c r="CM5" s="129"/>
+      <c r="CN5" s="129"/>
+      <c r="CO5" s="129">
         <f t="shared" ref="CO5" si="194">CO3</f>
         <v>42226</v>
       </c>
-      <c r="CP5" s="88"/>
-      <c r="CQ5" s="88"/>
-      <c r="CR5" s="88"/>
-      <c r="CS5" s="88"/>
-      <c r="CT5" s="88"/>
-      <c r="CU5" s="88"/>
-      <c r="CV5" s="88">
+      <c r="CP5" s="129"/>
+      <c r="CQ5" s="129"/>
+      <c r="CR5" s="129"/>
+      <c r="CS5" s="129"/>
+      <c r="CT5" s="129"/>
+      <c r="CU5" s="129"/>
+      <c r="CV5" s="129">
         <f t="shared" ref="CV5" si="195">CV3</f>
         <v>42233</v>
       </c>
-      <c r="CW5" s="88"/>
-      <c r="CX5" s="88"/>
-      <c r="CY5" s="88"/>
-      <c r="CZ5" s="88"/>
-      <c r="DA5" s="88"/>
-      <c r="DB5" s="88"/>
-      <c r="DC5" s="88">
+      <c r="CW5" s="129"/>
+      <c r="CX5" s="129"/>
+      <c r="CY5" s="129"/>
+      <c r="CZ5" s="129"/>
+      <c r="DA5" s="129"/>
+      <c r="DB5" s="129"/>
+      <c r="DC5" s="129">
         <f t="shared" ref="DC5" si="196">DC3</f>
         <v>42240</v>
       </c>
-      <c r="DD5" s="88"/>
-      <c r="DE5" s="88"/>
-      <c r="DF5" s="88"/>
-      <c r="DG5" s="88"/>
-      <c r="DH5" s="88"/>
-      <c r="DI5" s="88"/>
-      <c r="DJ5" s="88">
+      <c r="DD5" s="129"/>
+      <c r="DE5" s="129"/>
+      <c r="DF5" s="129"/>
+      <c r="DG5" s="129"/>
+      <c r="DH5" s="129"/>
+      <c r="DI5" s="129"/>
+      <c r="DJ5" s="129">
         <f t="shared" ref="DJ5" si="197">DJ3</f>
         <v>42247</v>
       </c>
-      <c r="DK5" s="88"/>
-      <c r="DL5" s="88"/>
-      <c r="DM5" s="88"/>
-      <c r="DN5" s="88"/>
-      <c r="DO5" s="88"/>
-      <c r="DP5" s="88"/>
-      <c r="DQ5" s="88">
+      <c r="DK5" s="129"/>
+      <c r="DL5" s="129"/>
+      <c r="DM5" s="129"/>
+      <c r="DN5" s="129"/>
+      <c r="DO5" s="129"/>
+      <c r="DP5" s="129"/>
+      <c r="DQ5" s="129">
         <f t="shared" ref="DQ5" si="198">DQ3</f>
         <v>42254</v>
       </c>
-      <c r="DR5" s="88"/>
-      <c r="DS5" s="88"/>
-      <c r="DT5" s="88"/>
-      <c r="DU5" s="88"/>
-      <c r="DV5" s="88"/>
-      <c r="DW5" s="88"/>
-      <c r="DX5" s="88">
+      <c r="DR5" s="129"/>
+      <c r="DS5" s="129"/>
+      <c r="DT5" s="129"/>
+      <c r="DU5" s="129"/>
+      <c r="DV5" s="129"/>
+      <c r="DW5" s="129"/>
+      <c r="DX5" s="129">
         <f t="shared" ref="DX5" si="199">DX3</f>
         <v>42261</v>
       </c>
-      <c r="DY5" s="88"/>
-      <c r="DZ5" s="88"/>
-      <c r="EA5" s="88"/>
-      <c r="EB5" s="88"/>
-      <c r="EC5" s="88"/>
-      <c r="ED5" s="88"/>
-      <c r="EE5" s="88">
+      <c r="DY5" s="129"/>
+      <c r="DZ5" s="129"/>
+      <c r="EA5" s="129"/>
+      <c r="EB5" s="129"/>
+      <c r="EC5" s="129"/>
+      <c r="ED5" s="129"/>
+      <c r="EE5" s="129">
         <f t="shared" ref="EE5" si="200">EE3</f>
         <v>42268</v>
       </c>
-      <c r="EF5" s="88"/>
-      <c r="EG5" s="88"/>
-      <c r="EH5" s="88"/>
-      <c r="EI5" s="88"/>
-      <c r="EJ5" s="88"/>
-      <c r="EK5" s="88"/>
-      <c r="EL5" s="88">
+      <c r="EF5" s="129"/>
+      <c r="EG5" s="129"/>
+      <c r="EH5" s="129"/>
+      <c r="EI5" s="129"/>
+      <c r="EJ5" s="129"/>
+      <c r="EK5" s="129"/>
+      <c r="EL5" s="129">
         <f t="shared" ref="EL5" si="201">EL3</f>
         <v>42275</v>
       </c>
-      <c r="EM5" s="88"/>
-      <c r="EN5" s="88"/>
-      <c r="EO5" s="88"/>
-      <c r="EP5" s="88"/>
-      <c r="EQ5" s="88"/>
-      <c r="ER5" s="88"/>
-      <c r="ES5" s="88">
+      <c r="EM5" s="129"/>
+      <c r="EN5" s="129"/>
+      <c r="EO5" s="129"/>
+      <c r="EP5" s="129"/>
+      <c r="EQ5" s="129"/>
+      <c r="ER5" s="129"/>
+      <c r="ES5" s="129">
         <f t="shared" ref="ES5" si="202">ES3</f>
         <v>42282</v>
       </c>
-      <c r="ET5" s="88"/>
-      <c r="EU5" s="88"/>
-      <c r="EV5" s="88"/>
-      <c r="EW5" s="88"/>
-      <c r="EX5" s="88"/>
-      <c r="EY5" s="88"/>
-      <c r="EZ5" s="88">
+      <c r="ET5" s="129"/>
+      <c r="EU5" s="129"/>
+      <c r="EV5" s="129"/>
+      <c r="EW5" s="129"/>
+      <c r="EX5" s="129"/>
+      <c r="EY5" s="129"/>
+      <c r="EZ5" s="129">
         <f t="shared" ref="EZ5" si="203">EZ3</f>
         <v>42289</v>
       </c>
-      <c r="FA5" s="88"/>
-      <c r="FB5" s="88"/>
-      <c r="FC5" s="88"/>
-      <c r="FD5" s="88"/>
-      <c r="FE5" s="88"/>
-      <c r="FF5" s="88"/>
-      <c r="FG5" s="88">
+      <c r="FA5" s="129"/>
+      <c r="FB5" s="129"/>
+      <c r="FC5" s="129"/>
+      <c r="FD5" s="129"/>
+      <c r="FE5" s="129"/>
+      <c r="FF5" s="129"/>
+      <c r="FG5" s="129">
         <f t="shared" ref="FG5" si="204">FG3</f>
         <v>42296</v>
       </c>
-      <c r="FH5" s="88"/>
-      <c r="FI5" s="88"/>
-      <c r="FJ5" s="88"/>
-      <c r="FK5" s="88"/>
-      <c r="FL5" s="88"/>
-      <c r="FM5" s="88"/>
-      <c r="FN5" s="88">
+      <c r="FH5" s="129"/>
+      <c r="FI5" s="129"/>
+      <c r="FJ5" s="129"/>
+      <c r="FK5" s="129"/>
+      <c r="FL5" s="129"/>
+      <c r="FM5" s="129"/>
+      <c r="FN5" s="129">
         <f t="shared" ref="FN5" si="205">FN3</f>
         <v>42303</v>
       </c>
-      <c r="FO5" s="88"/>
-      <c r="FP5" s="88"/>
-      <c r="FQ5" s="88"/>
-      <c r="FR5" s="88"/>
-      <c r="FS5" s="88"/>
-      <c r="FT5" s="88"/>
-      <c r="FU5" s="88">
+      <c r="FO5" s="129"/>
+      <c r="FP5" s="129"/>
+      <c r="FQ5" s="129"/>
+      <c r="FR5" s="129"/>
+      <c r="FS5" s="129"/>
+      <c r="FT5" s="129"/>
+      <c r="FU5" s="129">
         <f t="shared" ref="FU5" si="206">FU3</f>
         <v>42310</v>
       </c>
-      <c r="FV5" s="88"/>
-      <c r="FW5" s="88"/>
-      <c r="FX5" s="88"/>
-      <c r="FY5" s="88"/>
-      <c r="FZ5" s="88"/>
-      <c r="GA5" s="88"/>
-      <c r="GB5" s="88">
+      <c r="FV5" s="129"/>
+      <c r="FW5" s="129"/>
+      <c r="FX5" s="129"/>
+      <c r="FY5" s="129"/>
+      <c r="FZ5" s="129"/>
+      <c r="GA5" s="129"/>
+      <c r="GB5" s="129">
         <f t="shared" ref="GB5" si="207">GB3</f>
         <v>42317</v>
       </c>
-      <c r="GC5" s="88"/>
-      <c r="GD5" s="88"/>
-      <c r="GE5" s="88"/>
-      <c r="GF5" s="88"/>
-      <c r="GG5" s="88"/>
-      <c r="GH5" s="88"/>
-      <c r="GI5" s="88">
+      <c r="GC5" s="129"/>
+      <c r="GD5" s="129"/>
+      <c r="GE5" s="129"/>
+      <c r="GF5" s="129"/>
+      <c r="GG5" s="129"/>
+      <c r="GH5" s="129"/>
+      <c r="GI5" s="129">
         <f t="shared" ref="GI5" si="208">GI3</f>
         <v>42324</v>
       </c>
-      <c r="GJ5" s="88"/>
-      <c r="GK5" s="88"/>
-      <c r="GL5" s="88"/>
-      <c r="GM5" s="88"/>
-      <c r="GN5" s="88"/>
-      <c r="GO5" s="88"/>
-      <c r="GP5" s="88">
+      <c r="GJ5" s="129"/>
+      <c r="GK5" s="129"/>
+      <c r="GL5" s="129"/>
+      <c r="GM5" s="129"/>
+      <c r="GN5" s="129"/>
+      <c r="GO5" s="129"/>
+      <c r="GP5" s="129">
         <f t="shared" ref="GP5" si="209">GP3</f>
         <v>42331</v>
       </c>
-      <c r="GQ5" s="88"/>
-      <c r="GR5" s="88"/>
-      <c r="GS5" s="88"/>
-      <c r="GT5" s="88"/>
-      <c r="GU5" s="88"/>
-      <c r="GV5" s="88"/>
-      <c r="GW5" s="88">
+      <c r="GQ5" s="129"/>
+      <c r="GR5" s="129"/>
+      <c r="GS5" s="129"/>
+      <c r="GT5" s="129"/>
+      <c r="GU5" s="129"/>
+      <c r="GV5" s="129"/>
+      <c r="GW5" s="129">
         <f t="shared" ref="GW5" si="210">GW3</f>
         <v>42338</v>
       </c>
-      <c r="GX5" s="88"/>
-      <c r="GY5" s="88"/>
-      <c r="GZ5" s="88"/>
-      <c r="HA5" s="88"/>
-      <c r="HB5" s="88"/>
-      <c r="HC5" s="88"/>
-      <c r="HD5" s="88">
+      <c r="GX5" s="129"/>
+      <c r="GY5" s="129"/>
+      <c r="GZ5" s="129"/>
+      <c r="HA5" s="129"/>
+      <c r="HB5" s="129"/>
+      <c r="HC5" s="129"/>
+      <c r="HD5" s="129">
         <f t="shared" ref="HD5" si="211">HD3</f>
         <v>42345</v>
       </c>
-      <c r="HE5" s="88"/>
-      <c r="HF5" s="88"/>
-      <c r="HG5" s="88"/>
-      <c r="HH5" s="88"/>
-      <c r="HI5" s="88"/>
-      <c r="HJ5" s="88"/>
-      <c r="HK5" s="88">
+      <c r="HE5" s="129"/>
+      <c r="HF5" s="129"/>
+      <c r="HG5" s="129"/>
+      <c r="HH5" s="129"/>
+      <c r="HI5" s="129"/>
+      <c r="HJ5" s="129"/>
+      <c r="HK5" s="129">
         <f t="shared" ref="HK5" si="212">HK3</f>
         <v>42352</v>
       </c>
-      <c r="HL5" s="88"/>
-      <c r="HM5" s="88"/>
-      <c r="HN5" s="88"/>
-      <c r="HO5" s="88"/>
-      <c r="HP5" s="88"/>
-      <c r="HQ5" s="88"/>
-      <c r="HR5" s="88">
+      <c r="HL5" s="129"/>
+      <c r="HM5" s="129"/>
+      <c r="HN5" s="129"/>
+      <c r="HO5" s="129"/>
+      <c r="HP5" s="129"/>
+      <c r="HQ5" s="129"/>
+      <c r="HR5" s="129">
         <f t="shared" ref="HR5" si="213">HR3</f>
         <v>42359</v>
       </c>
-      <c r="HS5" s="88"/>
-      <c r="HT5" s="88"/>
-      <c r="HU5" s="88"/>
-      <c r="HV5" s="88"/>
-      <c r="HW5" s="88"/>
-      <c r="HX5" s="88"/>
-      <c r="HY5" s="88">
+      <c r="HS5" s="129"/>
+      <c r="HT5" s="129"/>
+      <c r="HU5" s="129"/>
+      <c r="HV5" s="129"/>
+      <c r="HW5" s="129"/>
+      <c r="HX5" s="129"/>
+      <c r="HY5" s="129">
         <f t="shared" ref="HY5" si="214">HY3</f>
         <v>42366</v>
       </c>
-      <c r="HZ5" s="88"/>
-      <c r="IA5" s="88"/>
-      <c r="IB5" s="88"/>
-      <c r="IC5" s="88"/>
-      <c r="ID5" s="88"/>
-      <c r="IE5" s="88"/>
-      <c r="IF5" s="88">
+      <c r="HZ5" s="129"/>
+      <c r="IA5" s="129"/>
+      <c r="IB5" s="129"/>
+      <c r="IC5" s="129"/>
+      <c r="ID5" s="129"/>
+      <c r="IE5" s="129"/>
+      <c r="IF5" s="129">
         <f t="shared" ref="IF5" si="215">IF3</f>
         <v>42373</v>
       </c>
-      <c r="IG5" s="88"/>
-      <c r="IH5" s="88"/>
-      <c r="II5" s="88"/>
-      <c r="IJ5" s="88"/>
-      <c r="IK5" s="88"/>
-      <c r="IL5" s="88"/>
-      <c r="IM5" s="88">
+      <c r="IG5" s="129"/>
+      <c r="IH5" s="129"/>
+      <c r="II5" s="129"/>
+      <c r="IJ5" s="129"/>
+      <c r="IK5" s="129"/>
+      <c r="IL5" s="129"/>
+      <c r="IM5" s="129">
         <f t="shared" ref="IM5" si="216">IM3</f>
         <v>42380</v>
       </c>
-      <c r="IN5" s="88"/>
-      <c r="IO5" s="88"/>
-      <c r="IP5" s="88"/>
-      <c r="IQ5" s="88"/>
-      <c r="IR5" s="88"/>
-      <c r="IS5" s="108"/>
+      <c r="IN5" s="129"/>
+      <c r="IO5" s="129"/>
+      <c r="IP5" s="129"/>
+      <c r="IQ5" s="129"/>
+      <c r="IR5" s="129"/>
+      <c r="IS5" s="137"/>
     </row>
     <row r="6" spans="1:253" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="55" t="str">
         <f>CHOOSE(WEEKDAY(I3,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
@@ -5965,13 +5965,13 @@
         <f t="shared" si="227"/>
         <v>S</v>
       </c>
-      <c r="IS6" s="110" t="str">
+      <c r="IS6" s="102" t="str">
         <f t="shared" si="227"/>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:253" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="103" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -6239,10 +6239,10 @@
       <c r="IP7" s="59"/>
       <c r="IQ7" s="59"/>
       <c r="IR7" s="59"/>
-      <c r="IS7" s="112"/>
+      <c r="IS7" s="104"/>
     </row>
     <row r="8" spans="1:253" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="105" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A8,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A8,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A8,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
@@ -6499,10 +6499,10 @@
       <c r="IP8" s="86"/>
       <c r="IQ8" s="86"/>
       <c r="IR8" s="86"/>
-      <c r="IS8" s="114"/>
+      <c r="IS8" s="106"/>
     </row>
     <row r="9" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="115" t="str">
+      <c r="A9" s="107" t="str">
         <f t="shared" ref="A9:A16" ca="1" si="228">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A9,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))),OFFSET(A9,-1,0,1,1)&amp;".1",LEFT(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A9,-1,0,1,1),LEN(OFFSET(A9,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
@@ -6774,10 +6774,10 @@
       <c r="IP9" s="85"/>
       <c r="IQ9" s="85"/>
       <c r="IR9" s="85"/>
-      <c r="IS9" s="116"/>
+      <c r="IS9" s="108"/>
     </row>
     <row r="10" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="str">
+      <c r="A10" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.2</v>
       </c>
@@ -7048,10 +7048,10 @@
       <c r="IP10" s="85"/>
       <c r="IQ10" s="85"/>
       <c r="IR10" s="85"/>
-      <c r="IS10" s="116"/>
+      <c r="IS10" s="108"/>
     </row>
     <row r="11" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="115" t="str">
+      <c r="A11" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.3</v>
       </c>
@@ -7322,10 +7322,10 @@
       <c r="IP11" s="85"/>
       <c r="IQ11" s="85"/>
       <c r="IR11" s="85"/>
-      <c r="IS11" s="116"/>
+      <c r="IS11" s="108"/>
     </row>
     <row r="12" spans="1:253" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="115" t="str">
+      <c r="A12" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.4</v>
       </c>
@@ -7596,10 +7596,10 @@
       <c r="IP12" s="85"/>
       <c r="IQ12" s="85"/>
       <c r="IR12" s="85"/>
-      <c r="IS12" s="116"/>
+      <c r="IS12" s="108"/>
     </row>
     <row r="13" spans="1:253" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="115" t="str">
+      <c r="A13" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.5</v>
       </c>
@@ -7870,10 +7870,10 @@
       <c r="IP13" s="85"/>
       <c r="IQ13" s="85"/>
       <c r="IR13" s="85"/>
-      <c r="IS13" s="116"/>
+      <c r="IS13" s="108"/>
     </row>
     <row r="14" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115" t="str">
+      <c r="A14" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.6</v>
       </c>
@@ -8144,10 +8144,10 @@
       <c r="IP14" s="85"/>
       <c r="IQ14" s="85"/>
       <c r="IR14" s="85"/>
-      <c r="IS14" s="116"/>
+      <c r="IS14" s="108"/>
     </row>
     <row r="15" spans="1:253" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="115">
+      <c r="A15" s="107">
         <v>1.7</v>
       </c>
       <c r="B15" s="65" t="s">
@@ -8417,10 +8417,10 @@
       <c r="IP15" s="85"/>
       <c r="IQ15" s="85"/>
       <c r="IR15" s="85"/>
-      <c r="IS15" s="116"/>
+      <c r="IS15" s="108"/>
     </row>
     <row r="16" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="115" t="str">
+      <c r="A16" s="107" t="str">
         <f t="shared" ca="1" si="228"/>
         <v>1.8</v>
       </c>
@@ -8692,10 +8692,10 @@
       <c r="IP16" s="59"/>
       <c r="IQ16" s="59"/>
       <c r="IR16" s="59"/>
-      <c r="IS16" s="112"/>
+      <c r="IS16" s="104"/>
     </row>
     <row r="17" spans="1:253" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="113" t="str">
+      <c r="A17" s="105" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A17,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
@@ -8952,10 +8952,10 @@
       <c r="IP17" s="86"/>
       <c r="IQ17" s="86"/>
       <c r="IR17" s="86"/>
-      <c r="IS17" s="114"/>
+      <c r="IS17" s="106"/>
     </row>
     <row r="18" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="115" t="str">
+      <c r="A18" s="107" t="str">
         <f t="shared" ref="A18:A21" ca="1" si="233">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A18,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",1))),OFFSET(A18,-1,0,1,1)&amp;".1",LEFT(OFFSET(A18,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A18,-1,0,1,1),LEN(OFFSET(A18,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A18,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
@@ -9226,10 +9226,10 @@
       <c r="IP18" s="85"/>
       <c r="IQ18" s="85"/>
       <c r="IR18" s="85"/>
-      <c r="IS18" s="116"/>
+      <c r="IS18" s="108"/>
     </row>
     <row r="19" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="115" t="str">
+      <c r="A19" s="107" t="str">
         <f t="shared" ca="1" si="233"/>
         <v>2.2</v>
       </c>
@@ -9500,10 +9500,10 @@
       <c r="IP19" s="85"/>
       <c r="IQ19" s="85"/>
       <c r="IR19" s="85"/>
-      <c r="IS19" s="116"/>
+      <c r="IS19" s="108"/>
     </row>
     <row r="20" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="115" t="str">
+      <c r="A20" s="107" t="str">
         <f t="shared" ca="1" si="233"/>
         <v>2.3</v>
       </c>
@@ -9774,10 +9774,10 @@
       <c r="IP20" s="85"/>
       <c r="IQ20" s="85"/>
       <c r="IR20" s="85"/>
-      <c r="IS20" s="116"/>
+      <c r="IS20" s="108"/>
     </row>
     <row r="21" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115" t="str">
+      <c r="A21" s="107" t="str">
         <f t="shared" ca="1" si="233"/>
         <v>2.4</v>
       </c>
@@ -10048,10 +10048,10 @@
       <c r="IP21" s="85"/>
       <c r="IQ21" s="85"/>
       <c r="IR21" s="85"/>
-      <c r="IS21" s="116"/>
+      <c r="IS21" s="108"/>
     </row>
     <row r="22" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="115">
+      <c r="A22" s="107">
         <v>2.5</v>
       </c>
       <c r="B22" s="65" t="s">
@@ -10321,10 +10321,10 @@
       <c r="IP22" s="85"/>
       <c r="IQ22" s="85"/>
       <c r="IR22" s="85"/>
-      <c r="IS22" s="116"/>
+      <c r="IS22" s="108"/>
     </row>
     <row r="23" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="115">
+      <c r="A23" s="107">
         <v>2.6</v>
       </c>
       <c r="B23" s="65" t="s">
@@ -10594,10 +10594,10 @@
       <c r="IP23" s="85"/>
       <c r="IQ23" s="85"/>
       <c r="IR23" s="85"/>
-      <c r="IS23" s="116"/>
+      <c r="IS23" s="108"/>
     </row>
     <row r="24" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="115">
+      <c r="A24" s="107">
         <v>2.7</v>
       </c>
       <c r="B24" s="65" t="s">
@@ -10867,10 +10867,10 @@
       <c r="IP24" s="85"/>
       <c r="IQ24" s="85"/>
       <c r="IR24" s="85"/>
-      <c r="IS24" s="116"/>
+      <c r="IS24" s="108"/>
     </row>
     <row r="25" spans="1:253" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="115">
+      <c r="A25" s="107">
         <v>2.8</v>
       </c>
       <c r="B25" s="65" t="s">
@@ -11140,10 +11140,10 @@
       <c r="IP25" s="85"/>
       <c r="IQ25" s="85"/>
       <c r="IR25" s="85"/>
-      <c r="IS25" s="116"/>
+      <c r="IS25" s="108"/>
     </row>
     <row r="26" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="115">
+      <c r="A26" s="107">
         <v>2.9</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -11413,10 +11413,10 @@
       <c r="IP26" s="59"/>
       <c r="IQ26" s="59"/>
       <c r="IR26" s="59"/>
-      <c r="IS26" s="112"/>
+      <c r="IS26" s="104"/>
     </row>
     <row r="27" spans="1:253" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="113" t="str">
+      <c r="A27" s="105" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A27,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
@@ -11673,10 +11673,10 @@
       <c r="IP27" s="86"/>
       <c r="IQ27" s="86"/>
       <c r="IR27" s="86"/>
-      <c r="IS27" s="114"/>
+      <c r="IS27" s="106"/>
     </row>
     <row r="28" spans="1:253" s="68" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="115" t="str">
+      <c r="A28" s="107" t="str">
         <f t="shared" ref="A28:A31" ca="1" si="238">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
@@ -11947,14 +11947,14 @@
       <c r="IP28" s="85"/>
       <c r="IQ28" s="85"/>
       <c r="IR28" s="85"/>
-      <c r="IS28" s="116"/>
+      <c r="IS28" s="108"/>
     </row>
     <row r="29" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="115" t="str">
+      <c r="A29" s="107" t="str">
         <f t="shared" ca="1" si="238"/>
         <v>3.2</v>
       </c>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="109" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="66" t="s">
@@ -12221,10 +12221,10 @@
       <c r="IP29" s="85"/>
       <c r="IQ29" s="85"/>
       <c r="IR29" s="85"/>
-      <c r="IS29" s="116"/>
+      <c r="IS29" s="108"/>
     </row>
     <row r="30" spans="1:253" s="68" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="str">
+      <c r="A30" s="107" t="str">
         <f t="shared" ca="1" si="238"/>
         <v>3.3</v>
       </c>
@@ -12496,10 +12496,10 @@
       <c r="IP30" s="85"/>
       <c r="IQ30" s="85"/>
       <c r="IR30" s="85"/>
-      <c r="IS30" s="116"/>
+      <c r="IS30" s="108"/>
     </row>
     <row r="31" spans="1:253" s="68" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="115" t="str">
+      <c r="A31" s="107" t="str">
         <f t="shared" ca="1" si="238"/>
         <v>3.4</v>
       </c>
@@ -12770,10 +12770,10 @@
       <c r="IP31" s="85"/>
       <c r="IQ31" s="85"/>
       <c r="IR31" s="85"/>
-      <c r="IS31" s="116"/>
+      <c r="IS31" s="108"/>
     </row>
     <row r="32" spans="1:253" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="115">
+      <c r="A32" s="107">
         <v>3.5</v>
       </c>
       <c r="B32" s="65" t="s">
@@ -13043,10 +13043,10 @@
       <c r="IP32" s="85"/>
       <c r="IQ32" s="85"/>
       <c r="IR32" s="85"/>
-      <c r="IS32" s="116"/>
+      <c r="IS32" s="108"/>
     </row>
     <row r="33" spans="1:253" s="68" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A33" s="115">
+      <c r="A33" s="107">
         <v>3.6</v>
       </c>
       <c r="B33" s="65" t="s">
@@ -13316,10 +13316,10 @@
       <c r="IP33" s="85"/>
       <c r="IQ33" s="85"/>
       <c r="IR33" s="85"/>
-      <c r="IS33" s="116"/>
+      <c r="IS33" s="108"/>
     </row>
     <row r="34" spans="1:253" s="68" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="115">
+      <c r="A34" s="107">
         <v>3.7</v>
       </c>
       <c r="B34" s="65" t="s">
@@ -13589,10 +13589,10 @@
       <c r="IP34" s="85"/>
       <c r="IQ34" s="85"/>
       <c r="IR34" s="85"/>
-      <c r="IS34" s="116"/>
+      <c r="IS34" s="108"/>
     </row>
     <row r="35" spans="1:253" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A35" s="115">
+      <c r="A35" s="107">
         <v>3.8</v>
       </c>
       <c r="B35" s="65" t="s">
@@ -13862,10 +13862,10 @@
       <c r="IP35" s="85"/>
       <c r="IQ35" s="85"/>
       <c r="IR35" s="85"/>
-      <c r="IS35" s="116"/>
+      <c r="IS35" s="108"/>
     </row>
     <row r="36" spans="1:253" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A36" s="115">
+      <c r="A36" s="107">
         <v>3.9</v>
       </c>
       <c r="B36" s="65" t="s">
@@ -14135,10 +14135,10 @@
       <c r="IP36" s="85"/>
       <c r="IQ36" s="85"/>
       <c r="IR36" s="85"/>
-      <c r="IS36" s="116"/>
+      <c r="IS36" s="108"/>
     </row>
     <row r="37" spans="1:253" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A37" s="118">
+      <c r="A37" s="110">
         <v>3.1</v>
       </c>
       <c r="B37" s="65" t="s">
@@ -14408,10 +14408,10 @@
       <c r="IP37" s="85"/>
       <c r="IQ37" s="85"/>
       <c r="IR37" s="85"/>
-      <c r="IS37" s="116"/>
+      <c r="IS37" s="108"/>
     </row>
     <row r="38" spans="1:253" s="68" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="118">
+      <c r="A38" s="110">
         <v>3.11</v>
       </c>
       <c r="B38" s="65" t="s">
@@ -14681,10 +14681,10 @@
       <c r="IP38" s="85"/>
       <c r="IQ38" s="85"/>
       <c r="IR38" s="85"/>
-      <c r="IS38" s="116"/>
+      <c r="IS38" s="108"/>
     </row>
     <row r="39" spans="1:253" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A39" s="118">
+      <c r="A39" s="110">
         <v>3.12</v>
       </c>
       <c r="B39" s="65" t="s">
@@ -14954,10 +14954,10 @@
       <c r="IP39" s="85"/>
       <c r="IQ39" s="85"/>
       <c r="IR39" s="85"/>
-      <c r="IS39" s="116"/>
+      <c r="IS39" s="108"/>
     </row>
     <row r="40" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="118">
+      <c r="A40" s="110">
         <v>3.13</v>
       </c>
       <c r="B40" s="65" t="s">
@@ -15227,10 +15227,10 @@
       <c r="IP40" s="87"/>
       <c r="IQ40" s="87"/>
       <c r="IR40" s="87"/>
-      <c r="IS40" s="119"/>
+      <c r="IS40" s="111"/>
     </row>
     <row r="41" spans="1:253" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A41" s="113" t="str">
+      <c r="A41" s="105" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A41,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A41,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
@@ -15487,10 +15487,10 @@
       <c r="IP41" s="86"/>
       <c r="IQ41" s="86"/>
       <c r="IR41" s="86"/>
-      <c r="IS41" s="114"/>
+      <c r="IS41" s="106"/>
     </row>
     <row r="42" spans="1:253" s="68" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A42" s="115" t="str">
+      <c r="A42" s="107" t="str">
         <f t="shared" ref="A42:A48" ca="1" si="244">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A42,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))),OFFSET(A42,-1,0,1,1)&amp;".1",LEFT(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A42,-1,0,1,1),LEN(OFFSET(A42,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
@@ -15761,10 +15761,10 @@
       <c r="IP42" s="85"/>
       <c r="IQ42" s="85"/>
       <c r="IR42" s="85"/>
-      <c r="IS42" s="116"/>
+      <c r="IS42" s="108"/>
     </row>
     <row r="43" spans="1:253" s="68" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="115" t="str">
+      <c r="A43" s="107" t="str">
         <f t="shared" ca="1" si="244"/>
         <v>4.2</v>
       </c>
@@ -16035,10 +16035,10 @@
       <c r="IP43" s="85"/>
       <c r="IQ43" s="85"/>
       <c r="IR43" s="85"/>
-      <c r="IS43" s="116"/>
+      <c r="IS43" s="108"/>
     </row>
     <row r="44" spans="1:253" s="68" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A44" s="115" t="str">
+      <c r="A44" s="107" t="str">
         <f t="shared" ca="1" si="244"/>
         <v>4.3</v>
       </c>
@@ -16309,10 +16309,10 @@
       <c r="IP44" s="85"/>
       <c r="IQ44" s="85"/>
       <c r="IR44" s="85"/>
-      <c r="IS44" s="116"/>
+      <c r="IS44" s="108"/>
     </row>
     <row r="45" spans="1:253" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="115" t="str">
+      <c r="A45" s="107" t="str">
         <f t="shared" ca="1" si="244"/>
         <v>4.4</v>
       </c>
@@ -16583,10 +16583,10 @@
       <c r="IP45" s="85"/>
       <c r="IQ45" s="85"/>
       <c r="IR45" s="85"/>
-      <c r="IS45" s="116"/>
+      <c r="IS45" s="108"/>
     </row>
     <row r="46" spans="1:253" s="68" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A46" s="115">
+      <c r="A46" s="107">
         <v>4.5</v>
       </c>
       <c r="B46" s="65" t="s">
@@ -16856,10 +16856,10 @@
       <c r="IP46" s="87"/>
       <c r="IQ46" s="87"/>
       <c r="IR46" s="87"/>
-      <c r="IS46" s="119"/>
+      <c r="IS46" s="111"/>
     </row>
     <row r="47" spans="1:253" s="64" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A47" s="113" t="str">
+      <c r="A47" s="105" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A47,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
@@ -17116,291 +17116,291 @@
       <c r="IP47" s="86"/>
       <c r="IQ47" s="86"/>
       <c r="IR47" s="86"/>
-      <c r="IS47" s="114"/>
+      <c r="IS47" s="106"/>
     </row>
     <row r="48" spans="1:253" s="68" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="120" t="str">
+      <c r="A48" s="112" t="str">
         <f t="shared" ca="1" si="244"/>
         <v>5.1</v>
       </c>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C48" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="123">
+      <c r="D48" s="115">
         <v>42345</v>
       </c>
-      <c r="E48" s="124">
+      <c r="E48" s="116">
         <f>IF(F48=0,D48,D48+F48-1)</f>
         <v>42372</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48" s="117">
         <v>28</v>
       </c>
-      <c r="G48" s="126">
+      <c r="G48" s="118">
         <v>0</v>
       </c>
-      <c r="H48" s="127">
+      <c r="H48" s="119">
         <f t="shared" ref="H48" si="247">IF(OR(E48=0,D48=0),0,NETWORKDAYS(D48,E48))</f>
         <v>20</v>
       </c>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="128"/>
-      <c r="R48" s="128"/>
-      <c r="S48" s="128"/>
-      <c r="T48" s="128"/>
-      <c r="U48" s="128"/>
-      <c r="V48" s="128"/>
-      <c r="W48" s="128"/>
-      <c r="X48" s="128"/>
-      <c r="Y48" s="128"/>
-      <c r="Z48" s="128"/>
-      <c r="AA48" s="128"/>
-      <c r="AB48" s="128"/>
-      <c r="AC48" s="128"/>
-      <c r="AD48" s="128"/>
-      <c r="AE48" s="128"/>
-      <c r="AF48" s="128"/>
-      <c r="AG48" s="128"/>
-      <c r="AH48" s="128"/>
-      <c r="AI48" s="128"/>
-      <c r="AJ48" s="128"/>
-      <c r="AK48" s="128"/>
-      <c r="AL48" s="128"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="128"/>
-      <c r="AP48" s="128"/>
-      <c r="AQ48" s="128"/>
-      <c r="AR48" s="128"/>
-      <c r="AS48" s="128"/>
-      <c r="AT48" s="128"/>
-      <c r="AU48" s="128"/>
-      <c r="AV48" s="128"/>
-      <c r="AW48" s="128"/>
-      <c r="AX48" s="128"/>
-      <c r="AY48" s="128"/>
-      <c r="AZ48" s="128"/>
-      <c r="BA48" s="128"/>
-      <c r="BB48" s="128"/>
-      <c r="BC48" s="128"/>
-      <c r="BD48" s="128"/>
-      <c r="BE48" s="128"/>
-      <c r="BF48" s="128"/>
-      <c r="BG48" s="128"/>
-      <c r="BH48" s="128"/>
-      <c r="BI48" s="128"/>
-      <c r="BJ48" s="128"/>
-      <c r="BK48" s="128"/>
-      <c r="BL48" s="128"/>
-      <c r="BM48" s="128"/>
-      <c r="BN48" s="128"/>
-      <c r="BO48" s="128"/>
-      <c r="BP48" s="128"/>
-      <c r="BQ48" s="128"/>
-      <c r="BR48" s="128"/>
-      <c r="BS48" s="128"/>
-      <c r="BT48" s="128"/>
-      <c r="BU48" s="128"/>
-      <c r="BV48" s="128"/>
-      <c r="BW48" s="128"/>
-      <c r="BX48" s="128"/>
-      <c r="BY48" s="128"/>
-      <c r="BZ48" s="128"/>
-      <c r="CA48" s="128"/>
-      <c r="CB48" s="128"/>
-      <c r="CC48" s="128"/>
-      <c r="CD48" s="128"/>
-      <c r="CE48" s="128"/>
-      <c r="CF48" s="128"/>
-      <c r="CG48" s="128"/>
-      <c r="CH48" s="128"/>
-      <c r="CI48" s="128"/>
-      <c r="CJ48" s="128"/>
-      <c r="CK48" s="128"/>
-      <c r="CL48" s="128"/>
-      <c r="CM48" s="128"/>
-      <c r="CN48" s="128"/>
-      <c r="CO48" s="128"/>
-      <c r="CP48" s="128"/>
-      <c r="CQ48" s="128"/>
-      <c r="CR48" s="128"/>
-      <c r="CS48" s="128"/>
-      <c r="CT48" s="128"/>
-      <c r="CU48" s="128"/>
-      <c r="CV48" s="128"/>
-      <c r="CW48" s="128"/>
-      <c r="CX48" s="128"/>
-      <c r="CY48" s="128"/>
-      <c r="CZ48" s="128"/>
-      <c r="DA48" s="128"/>
-      <c r="DB48" s="128"/>
-      <c r="DC48" s="128"/>
-      <c r="DD48" s="128"/>
-      <c r="DE48" s="128"/>
-      <c r="DF48" s="128"/>
-      <c r="DG48" s="128"/>
-      <c r="DH48" s="128"/>
-      <c r="DI48" s="128"/>
-      <c r="DJ48" s="128"/>
-      <c r="DK48" s="128"/>
-      <c r="DL48" s="128"/>
-      <c r="DM48" s="128"/>
-      <c r="DN48" s="128"/>
-      <c r="DO48" s="128"/>
-      <c r="DP48" s="128"/>
-      <c r="DQ48" s="128"/>
-      <c r="DR48" s="128"/>
-      <c r="DS48" s="128"/>
-      <c r="DT48" s="128"/>
-      <c r="DU48" s="128"/>
-      <c r="DV48" s="128"/>
-      <c r="DW48" s="128"/>
-      <c r="DX48" s="128"/>
-      <c r="DY48" s="128"/>
-      <c r="DZ48" s="128"/>
-      <c r="EA48" s="128"/>
-      <c r="EB48" s="128"/>
-      <c r="EC48" s="128"/>
-      <c r="ED48" s="128"/>
-      <c r="EE48" s="128"/>
-      <c r="EF48" s="128"/>
-      <c r="EG48" s="128"/>
-      <c r="EH48" s="128"/>
-      <c r="EI48" s="128"/>
-      <c r="EJ48" s="128"/>
-      <c r="EK48" s="128"/>
-      <c r="EL48" s="128"/>
-      <c r="EM48" s="128"/>
-      <c r="EN48" s="128"/>
-      <c r="EO48" s="128"/>
-      <c r="EP48" s="128"/>
-      <c r="EQ48" s="128"/>
-      <c r="ER48" s="128"/>
-      <c r="ES48" s="128"/>
-      <c r="ET48" s="128"/>
-      <c r="EU48" s="128"/>
-      <c r="EV48" s="128"/>
-      <c r="EW48" s="128"/>
-      <c r="EX48" s="128"/>
-      <c r="EY48" s="128"/>
-      <c r="EZ48" s="128"/>
-      <c r="FA48" s="128"/>
-      <c r="FB48" s="128"/>
-      <c r="FC48" s="128"/>
-      <c r="FD48" s="128"/>
-      <c r="FE48" s="128"/>
-      <c r="FF48" s="128"/>
-      <c r="FG48" s="128"/>
-      <c r="FH48" s="128"/>
-      <c r="FI48" s="128"/>
-      <c r="FJ48" s="128"/>
-      <c r="FK48" s="128"/>
-      <c r="FL48" s="128"/>
-      <c r="FM48" s="128"/>
-      <c r="FN48" s="128"/>
-      <c r="FO48" s="128"/>
-      <c r="FP48" s="128"/>
-      <c r="FQ48" s="128"/>
-      <c r="FR48" s="128"/>
-      <c r="FS48" s="128"/>
-      <c r="FT48" s="128"/>
-      <c r="FU48" s="128"/>
-      <c r="FV48" s="128"/>
-      <c r="FW48" s="128"/>
-      <c r="FX48" s="128"/>
-      <c r="FY48" s="128"/>
-      <c r="FZ48" s="128"/>
-      <c r="GA48" s="128"/>
-      <c r="GB48" s="128"/>
-      <c r="GC48" s="128"/>
-      <c r="GD48" s="128"/>
-      <c r="GE48" s="128"/>
-      <c r="GF48" s="128"/>
-      <c r="GG48" s="128"/>
-      <c r="GH48" s="128"/>
-      <c r="GI48" s="128"/>
-      <c r="GJ48" s="128"/>
-      <c r="GK48" s="128"/>
-      <c r="GL48" s="128"/>
-      <c r="GM48" s="128"/>
-      <c r="GN48" s="128"/>
-      <c r="GO48" s="128"/>
-      <c r="GP48" s="128"/>
-      <c r="GQ48" s="128"/>
-      <c r="GR48" s="128"/>
-      <c r="GS48" s="128"/>
-      <c r="GT48" s="128"/>
-      <c r="GU48" s="128"/>
-      <c r="GV48" s="128"/>
-      <c r="GW48" s="128"/>
-      <c r="GX48" s="128"/>
-      <c r="GY48" s="128"/>
-      <c r="GZ48" s="128"/>
-      <c r="HA48" s="128"/>
-      <c r="HB48" s="128"/>
-      <c r="HC48" s="128"/>
-      <c r="HD48" s="128"/>
-      <c r="HE48" s="128"/>
-      <c r="HF48" s="128"/>
-      <c r="HG48" s="128"/>
-      <c r="HH48" s="128"/>
-      <c r="HI48" s="128"/>
-      <c r="HJ48" s="128"/>
-      <c r="HK48" s="128"/>
-      <c r="HL48" s="128"/>
-      <c r="HM48" s="128"/>
-      <c r="HN48" s="128"/>
-      <c r="HO48" s="128"/>
-      <c r="HP48" s="128"/>
-      <c r="HQ48" s="128"/>
-      <c r="HR48" s="128"/>
-      <c r="HS48" s="128"/>
-      <c r="HT48" s="128"/>
-      <c r="HU48" s="128"/>
-      <c r="HV48" s="128"/>
-      <c r="HW48" s="128"/>
-      <c r="HX48" s="128"/>
-      <c r="HY48" s="128"/>
-      <c r="HZ48" s="128"/>
-      <c r="IA48" s="128"/>
-      <c r="IB48" s="128"/>
-      <c r="IC48" s="128"/>
-      <c r="ID48" s="128"/>
-      <c r="IE48" s="128"/>
-      <c r="IF48" s="128"/>
-      <c r="IG48" s="128"/>
-      <c r="IH48" s="128"/>
-      <c r="II48" s="128"/>
-      <c r="IJ48" s="128"/>
-      <c r="IK48" s="128"/>
-      <c r="IL48" s="128"/>
-      <c r="IM48" s="128"/>
-      <c r="IN48" s="128"/>
-      <c r="IO48" s="128"/>
-      <c r="IP48" s="128"/>
-      <c r="IQ48" s="128"/>
-      <c r="IR48" s="128"/>
-      <c r="IS48" s="129"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
+      <c r="U48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="120"/>
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="120"/>
+      <c r="AC48" s="120"/>
+      <c r="AD48" s="120"/>
+      <c r="AE48" s="120"/>
+      <c r="AF48" s="120"/>
+      <c r="AG48" s="120"/>
+      <c r="AH48" s="120"/>
+      <c r="AI48" s="120"/>
+      <c r="AJ48" s="120"/>
+      <c r="AK48" s="120"/>
+      <c r="AL48" s="120"/>
+      <c r="AM48" s="120"/>
+      <c r="AN48" s="120"/>
+      <c r="AO48" s="120"/>
+      <c r="AP48" s="120"/>
+      <c r="AQ48" s="120"/>
+      <c r="AR48" s="120"/>
+      <c r="AS48" s="120"/>
+      <c r="AT48" s="120"/>
+      <c r="AU48" s="120"/>
+      <c r="AV48" s="120"/>
+      <c r="AW48" s="120"/>
+      <c r="AX48" s="120"/>
+      <c r="AY48" s="120"/>
+      <c r="AZ48" s="120"/>
+      <c r="BA48" s="120"/>
+      <c r="BB48" s="120"/>
+      <c r="BC48" s="120"/>
+      <c r="BD48" s="120"/>
+      <c r="BE48" s="120"/>
+      <c r="BF48" s="120"/>
+      <c r="BG48" s="120"/>
+      <c r="BH48" s="120"/>
+      <c r="BI48" s="120"/>
+      <c r="BJ48" s="120"/>
+      <c r="BK48" s="120"/>
+      <c r="BL48" s="120"/>
+      <c r="BM48" s="120"/>
+      <c r="BN48" s="120"/>
+      <c r="BO48" s="120"/>
+      <c r="BP48" s="120"/>
+      <c r="BQ48" s="120"/>
+      <c r="BR48" s="120"/>
+      <c r="BS48" s="120"/>
+      <c r="BT48" s="120"/>
+      <c r="BU48" s="120"/>
+      <c r="BV48" s="120"/>
+      <c r="BW48" s="120"/>
+      <c r="BX48" s="120"/>
+      <c r="BY48" s="120"/>
+      <c r="BZ48" s="120"/>
+      <c r="CA48" s="120"/>
+      <c r="CB48" s="120"/>
+      <c r="CC48" s="120"/>
+      <c r="CD48" s="120"/>
+      <c r="CE48" s="120"/>
+      <c r="CF48" s="120"/>
+      <c r="CG48" s="120"/>
+      <c r="CH48" s="120"/>
+      <c r="CI48" s="120"/>
+      <c r="CJ48" s="120"/>
+      <c r="CK48" s="120"/>
+      <c r="CL48" s="120"/>
+      <c r="CM48" s="120"/>
+      <c r="CN48" s="120"/>
+      <c r="CO48" s="120"/>
+      <c r="CP48" s="120"/>
+      <c r="CQ48" s="120"/>
+      <c r="CR48" s="120"/>
+      <c r="CS48" s="120"/>
+      <c r="CT48" s="120"/>
+      <c r="CU48" s="120"/>
+      <c r="CV48" s="120"/>
+      <c r="CW48" s="120"/>
+      <c r="CX48" s="120"/>
+      <c r="CY48" s="120"/>
+      <c r="CZ48" s="120"/>
+      <c r="DA48" s="120"/>
+      <c r="DB48" s="120"/>
+      <c r="DC48" s="120"/>
+      <c r="DD48" s="120"/>
+      <c r="DE48" s="120"/>
+      <c r="DF48" s="120"/>
+      <c r="DG48" s="120"/>
+      <c r="DH48" s="120"/>
+      <c r="DI48" s="120"/>
+      <c r="DJ48" s="120"/>
+      <c r="DK48" s="120"/>
+      <c r="DL48" s="120"/>
+      <c r="DM48" s="120"/>
+      <c r="DN48" s="120"/>
+      <c r="DO48" s="120"/>
+      <c r="DP48" s="120"/>
+      <c r="DQ48" s="120"/>
+      <c r="DR48" s="120"/>
+      <c r="DS48" s="120"/>
+      <c r="DT48" s="120"/>
+      <c r="DU48" s="120"/>
+      <c r="DV48" s="120"/>
+      <c r="DW48" s="120"/>
+      <c r="DX48" s="120"/>
+      <c r="DY48" s="120"/>
+      <c r="DZ48" s="120"/>
+      <c r="EA48" s="120"/>
+      <c r="EB48" s="120"/>
+      <c r="EC48" s="120"/>
+      <c r="ED48" s="120"/>
+      <c r="EE48" s="120"/>
+      <c r="EF48" s="120"/>
+      <c r="EG48" s="120"/>
+      <c r="EH48" s="120"/>
+      <c r="EI48" s="120"/>
+      <c r="EJ48" s="120"/>
+      <c r="EK48" s="120"/>
+      <c r="EL48" s="120"/>
+      <c r="EM48" s="120"/>
+      <c r="EN48" s="120"/>
+      <c r="EO48" s="120"/>
+      <c r="EP48" s="120"/>
+      <c r="EQ48" s="120"/>
+      <c r="ER48" s="120"/>
+      <c r="ES48" s="120"/>
+      <c r="ET48" s="120"/>
+      <c r="EU48" s="120"/>
+      <c r="EV48" s="120"/>
+      <c r="EW48" s="120"/>
+      <c r="EX48" s="120"/>
+      <c r="EY48" s="120"/>
+      <c r="EZ48" s="120"/>
+      <c r="FA48" s="120"/>
+      <c r="FB48" s="120"/>
+      <c r="FC48" s="120"/>
+      <c r="FD48" s="120"/>
+      <c r="FE48" s="120"/>
+      <c r="FF48" s="120"/>
+      <c r="FG48" s="120"/>
+      <c r="FH48" s="120"/>
+      <c r="FI48" s="120"/>
+      <c r="FJ48" s="120"/>
+      <c r="FK48" s="120"/>
+      <c r="FL48" s="120"/>
+      <c r="FM48" s="120"/>
+      <c r="FN48" s="120"/>
+      <c r="FO48" s="120"/>
+      <c r="FP48" s="120"/>
+      <c r="FQ48" s="120"/>
+      <c r="FR48" s="120"/>
+      <c r="FS48" s="120"/>
+      <c r="FT48" s="120"/>
+      <c r="FU48" s="120"/>
+      <c r="FV48" s="120"/>
+      <c r="FW48" s="120"/>
+      <c r="FX48" s="120"/>
+      <c r="FY48" s="120"/>
+      <c r="FZ48" s="120"/>
+      <c r="GA48" s="120"/>
+      <c r="GB48" s="120"/>
+      <c r="GC48" s="120"/>
+      <c r="GD48" s="120"/>
+      <c r="GE48" s="120"/>
+      <c r="GF48" s="120"/>
+      <c r="GG48" s="120"/>
+      <c r="GH48" s="120"/>
+      <c r="GI48" s="120"/>
+      <c r="GJ48" s="120"/>
+      <c r="GK48" s="120"/>
+      <c r="GL48" s="120"/>
+      <c r="GM48" s="120"/>
+      <c r="GN48" s="120"/>
+      <c r="GO48" s="120"/>
+      <c r="GP48" s="120"/>
+      <c r="GQ48" s="120"/>
+      <c r="GR48" s="120"/>
+      <c r="GS48" s="120"/>
+      <c r="GT48" s="120"/>
+      <c r="GU48" s="120"/>
+      <c r="GV48" s="120"/>
+      <c r="GW48" s="120"/>
+      <c r="GX48" s="120"/>
+      <c r="GY48" s="120"/>
+      <c r="GZ48" s="120"/>
+      <c r="HA48" s="120"/>
+      <c r="HB48" s="120"/>
+      <c r="HC48" s="120"/>
+      <c r="HD48" s="120"/>
+      <c r="HE48" s="120"/>
+      <c r="HF48" s="120"/>
+      <c r="HG48" s="120"/>
+      <c r="HH48" s="120"/>
+      <c r="HI48" s="120"/>
+      <c r="HJ48" s="120"/>
+      <c r="HK48" s="120"/>
+      <c r="HL48" s="120"/>
+      <c r="HM48" s="120"/>
+      <c r="HN48" s="120"/>
+      <c r="HO48" s="120"/>
+      <c r="HP48" s="120"/>
+      <c r="HQ48" s="120"/>
+      <c r="HR48" s="120"/>
+      <c r="HS48" s="120"/>
+      <c r="HT48" s="120"/>
+      <c r="HU48" s="120"/>
+      <c r="HV48" s="120"/>
+      <c r="HW48" s="120"/>
+      <c r="HX48" s="120"/>
+      <c r="HY48" s="120"/>
+      <c r="HZ48" s="120"/>
+      <c r="IA48" s="120"/>
+      <c r="IB48" s="120"/>
+      <c r="IC48" s="120"/>
+      <c r="ID48" s="120"/>
+      <c r="IE48" s="120"/>
+      <c r="IF48" s="120"/>
+      <c r="IG48" s="120"/>
+      <c r="IH48" s="120"/>
+      <c r="II48" s="120"/>
+      <c r="IJ48" s="120"/>
+      <c r="IK48" s="120"/>
+      <c r="IL48" s="120"/>
+      <c r="IM48" s="120"/>
+      <c r="IN48" s="120"/>
+      <c r="IO48" s="120"/>
+      <c r="IP48" s="120"/>
+      <c r="IQ48" s="120"/>
+      <c r="IR48" s="120"/>
+      <c r="IS48" s="121"/>
     </row>
     <row r="49" spans="1:253" s="69" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="97"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -34457,19 +34457,55 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="BF5:BL5"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AR5:AX5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="AY5:BE5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="IF5:IL5"/>
+    <mergeCell ref="IM5:IS5"/>
+    <mergeCell ref="DX5:ED5"/>
+    <mergeCell ref="EE5:EK5"/>
+    <mergeCell ref="EL5:ER5"/>
+    <mergeCell ref="ES5:EY5"/>
+    <mergeCell ref="HK5:HQ5"/>
+    <mergeCell ref="EZ5:FF5"/>
+    <mergeCell ref="FG5:FM5"/>
+    <mergeCell ref="FN5:FT5"/>
+    <mergeCell ref="FU5:GA5"/>
+    <mergeCell ref="GB5:GH5"/>
+    <mergeCell ref="GI5:GO5"/>
+    <mergeCell ref="GP5:GV5"/>
+    <mergeCell ref="GW5:HC5"/>
+    <mergeCell ref="HD5:HJ5"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="HR5:HX5"/>
+    <mergeCell ref="HY5:IE5"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CA5:CG5"/>
+    <mergeCell ref="CH5:CN5"/>
+    <mergeCell ref="CO5:CU5"/>
+    <mergeCell ref="CV5:DB5"/>
+    <mergeCell ref="DC5:DI5"/>
+    <mergeCell ref="DJ5:DP5"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DQ5:DW5"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -34483,55 +34519,19 @@
     <mergeCell ref="BM5:BS5"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CA5:CG5"/>
-    <mergeCell ref="CH5:CN5"/>
-    <mergeCell ref="CO5:CU5"/>
-    <mergeCell ref="CV5:DB5"/>
-    <mergeCell ref="DC5:DI5"/>
-    <mergeCell ref="DJ5:DP5"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="GI5:GO5"/>
-    <mergeCell ref="GP5:GV5"/>
-    <mergeCell ref="GW5:HC5"/>
-    <mergeCell ref="HD5:HJ5"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="EZ5:FF5"/>
-    <mergeCell ref="FG5:FM5"/>
-    <mergeCell ref="FN5:FT5"/>
-    <mergeCell ref="FU5:GA5"/>
-    <mergeCell ref="GB5:GH5"/>
-    <mergeCell ref="DQ5:DW5"/>
-    <mergeCell ref="DX5:ED5"/>
-    <mergeCell ref="EE5:EK5"/>
-    <mergeCell ref="EL5:ER5"/>
-    <mergeCell ref="ES5:EY5"/>
-    <mergeCell ref="HK5:HQ5"/>
-    <mergeCell ref="HR5:HX5"/>
-    <mergeCell ref="HY5:IE5"/>
-    <mergeCell ref="IF5:IL5"/>
-    <mergeCell ref="IM5:IS5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="BF5:BL5"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="AY5:BE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G9:G16 G49 G18:G26 G28:G31 G41:G45">
@@ -35120,10 +35120,10 @@
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="138"/>
     </row>
     <row r="5" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
@@ -35162,10 +35162,10 @@
     </row>
     <row r="15" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="138"/>
     </row>
     <row r="17" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
@@ -35222,10 +35222,10 @@
       <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="138"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="50" t="s">
@@ -35304,10 +35304,10 @@
     </row>
     <row r="46" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="91"/>
+      <c r="B47" s="138"/>
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="41" t="s">
@@ -35404,10 +35404,10 @@
       <c r="B62" s="19"/>
     </row>
     <row r="63" spans="1:2" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="91"/>
+      <c r="B63" s="138"/>
     </row>
     <row r="64" spans="1:2" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="73" t="s">
@@ -35418,10 +35418,10 @@
       <c r="B65" s="19"/>
     </row>
     <row r="66" spans="1:2" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="91"/>
+      <c r="B66" s="138"/>
     </row>
     <row r="67" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="73" t="s">
@@ -35432,10 +35432,10 @@
       <c r="B68" s="23"/>
     </row>
     <row r="69" spans="1:2" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="91"/>
+      <c r="B69" s="138"/>
     </row>
     <row r="70" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
